--- a/teaching/traditional_assets/database/data/sri_lanka/sri_lanka_tobacco.xlsx
+++ b/teaching/traditional_assets/database/data/sri_lanka/sri_lanka_tobacco.xlsx
@@ -8,6 +8,8 @@
   </bookViews>
   <sheets>
     <sheet name="earnings_debt" sheetId="1" r:id="rId1"/>
+    <sheet name="cost_capital" sheetId="2" r:id="rId2"/>
+    <sheet name="cose_ctc_n0000" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
@@ -591,49 +593,46 @@
         </is>
       </c>
       <c r="D2">
-        <v>0.092</v>
+        <v>0.0588</v>
       </c>
       <c r="E2">
-        <v>0.151</v>
-      </c>
-      <c r="F2">
-        <v>0.075</v>
+        <v>0.08160000000000001</v>
       </c>
       <c r="G2">
-        <v>0.7571277719112989</v>
+        <v>0.8072805139186295</v>
       </c>
       <c r="H2">
-        <v>0.7571277719112989</v>
+        <v>0.8072805139186295</v>
       </c>
       <c r="I2">
-        <v>0.8191681455641663</v>
+        <v>0.7328693790149893</v>
       </c>
       <c r="J2">
-        <v>0.5114143671201702</v>
+        <v>0.4474905607554422</v>
       </c>
       <c r="K2">
-        <v>101.7</v>
+        <v>86.3</v>
       </c>
       <c r="L2">
-        <v>0.5369588173178458</v>
+        <v>0.4619914346895074</v>
       </c>
       <c r="M2">
-        <v>88.09999999999999</v>
+        <v>94.59999999999999</v>
       </c>
       <c r="N2">
-        <v>0.0775459906698354</v>
+        <v>0.09123348442472753</v>
       </c>
       <c r="O2">
-        <v>0.8662733529990166</v>
+        <v>1.096176129779838</v>
       </c>
       <c r="P2">
-        <v>88.09999999999999</v>
+        <v>94.59999999999999</v>
       </c>
       <c r="Q2">
-        <v>0.0775459906698354</v>
+        <v>0.09123348442472753</v>
       </c>
       <c r="R2">
-        <v>0.8662733529990166</v>
+        <v>1.096176129779838</v>
       </c>
       <c r="S2">
         <v>0</v>
@@ -642,70 +641,73 @@
         <v>0</v>
       </c>
       <c r="U2">
-        <v>116.9</v>
+        <v>116.6</v>
       </c>
       <c r="V2">
-        <v>0.1028958718422674</v>
+        <v>0.112450573825827</v>
       </c>
       <c r="W2">
-        <v>2.398584905660377</v>
+        <v>1.892543859649123</v>
       </c>
       <c r="X2">
-        <v>0.1113574034932344</v>
+        <v>0.07536323927126611</v>
       </c>
       <c r="Y2">
-        <v>2.287227502167143</v>
+        <v>1.817180620377856</v>
       </c>
       <c r="Z2">
-        <v>-1.963869898493049</v>
+        <v>-2.670097198399085</v>
       </c>
       <c r="AA2">
-        <v>-1.004351281244175</v>
+        <v>-1.194843292583142</v>
       </c>
       <c r="AB2">
-        <v>0.1112324405750077</v>
+        <v>0.0753501196858145</v>
       </c>
       <c r="AC2">
-        <v>-1.115583721819183</v>
+        <v>-1.270193412268956</v>
       </c>
       <c r="AD2">
-        <v>1.34</v>
+        <v>0.984</v>
       </c>
       <c r="AE2">
-        <v>1.457766150734461</v>
+        <v>0</v>
       </c>
       <c r="AF2">
-        <v>2.797766150734461</v>
+        <v>0.984</v>
       </c>
       <c r="AG2">
-        <v>-114.1022338492655</v>
+        <v>-115.616</v>
       </c>
       <c r="AH2">
-        <v>0.002456556008701639</v>
+        <v>0.0009480828300657876</v>
       </c>
       <c r="AI2">
-        <v>0.05780775381286898</v>
+        <v>0.02262901297028792</v>
       </c>
       <c r="AJ2">
-        <v>-0.1116462654111483</v>
+        <v>-0.1254944186591757</v>
       </c>
       <c r="AK2">
-        <v>1.665671722477543</v>
+        <v>1.581268121888506</v>
       </c>
       <c r="AL2">
-        <v>0</v>
+        <v>0.174</v>
       </c>
       <c r="AM2">
-        <v>-9.06</v>
+        <v>-5.215999999999999</v>
       </c>
       <c r="AN2">
-        <v>0.008543629895053622</v>
+        <v>0.007125271542360609</v>
+      </c>
+      <c r="AO2">
+        <v>786.7816091954024</v>
       </c>
       <c r="AP2">
-        <v>-0.727497952393272</v>
+        <v>-0.8371904417089067</v>
       </c>
       <c r="AQ2">
-        <v>-17.07505518763797</v>
+        <v>-26.24616564417178</v>
       </c>
     </row>
     <row r="3">
@@ -725,121 +727,8839 @@
         </is>
       </c>
       <c r="D3">
-        <v>0.092</v>
+        <v>0.0588</v>
       </c>
       <c r="E3">
-        <v>0.151</v>
+        <v>0.08160000000000001</v>
+      </c>
+      <c r="G3">
+        <v>0.8072805139186295</v>
+      </c>
+      <c r="H3">
+        <v>0.8072805139186295</v>
+      </c>
+      <c r="I3">
+        <v>0.7328693790149893</v>
+      </c>
+      <c r="J3">
+        <v>0.4474905607554422</v>
+      </c>
+      <c r="K3">
+        <v>86.3</v>
+      </c>
+      <c r="L3">
+        <v>0.4619914346895074</v>
+      </c>
+      <c r="M3">
+        <v>94.59999999999999</v>
+      </c>
+      <c r="N3">
+        <v>0.09123348442472753</v>
+      </c>
+      <c r="O3">
+        <v>1.096176129779838</v>
+      </c>
+      <c r="P3">
+        <v>94.59999999999999</v>
+      </c>
+      <c r="Q3">
+        <v>0.09123348442472753</v>
+      </c>
+      <c r="R3">
+        <v>1.096176129779838</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+      <c r="T3">
+        <v>0</v>
+      </c>
+      <c r="U3">
+        <v>116.6</v>
+      </c>
+      <c r="V3">
+        <v>0.112450573825827</v>
+      </c>
+      <c r="W3">
+        <v>1.892543859649123</v>
+      </c>
+      <c r="X3">
+        <v>0.07536323927126611</v>
+      </c>
+      <c r="Y3">
+        <v>1.817180620377856</v>
+      </c>
+      <c r="Z3">
+        <v>-2.670097198399085</v>
+      </c>
+      <c r="AA3">
+        <v>-1.194843292583142</v>
+      </c>
+      <c r="AB3">
+        <v>0.0753501196858145</v>
+      </c>
+      <c r="AC3">
+        <v>-1.270193412268956</v>
+      </c>
+      <c r="AD3">
+        <v>0.984</v>
+      </c>
+      <c r="AE3">
+        <v>0</v>
+      </c>
+      <c r="AF3">
+        <v>0.984</v>
+      </c>
+      <c r="AG3">
+        <v>-115.616</v>
+      </c>
+      <c r="AH3">
+        <v>0.0009480828300657876</v>
+      </c>
+      <c r="AI3">
+        <v>0.02262901297028792</v>
+      </c>
+      <c r="AJ3">
+        <v>-0.1254944186591757</v>
+      </c>
+      <c r="AK3">
+        <v>1.581268121888506</v>
+      </c>
+      <c r="AL3">
+        <v>0.174</v>
+      </c>
+      <c r="AM3">
+        <v>-5.215999999999999</v>
+      </c>
+      <c r="AN3">
+        <v>0.007125271542360609</v>
+      </c>
+      <c r="AO3">
+        <v>786.7816091954024</v>
+      </c>
+      <c r="AP3">
+        <v>-0.8371904417089067</v>
+      </c>
+      <c r="AQ3">
+        <v>-26.24616564417178</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:AQ2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" s="1" customFormat="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>company_name</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>exchange_ticker</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>industry_group</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>country</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>actual_debt_capital</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>optimal_debt_capital</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>actual_equity_value</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>optimal_equity_value</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>actual_enterprise_value</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>optimal_enterprise_value</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>actual_debt</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>optimal_debt</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>actual_cost_capital</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>optimal_cost_capital</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>actual_cost_debt_after_tax</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>optimal_cost_debt_after_tax</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>actual_debt_rating</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>optimal_debt_rating</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>actual_cost_equity</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>optimal_cost_equity</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>actual_beta</t>
+        </is>
+      </c>
+      <c r="V1" s="1" t="inlineStr">
+        <is>
+          <t>optimal_beta</t>
+        </is>
+      </c>
+      <c r="W1" s="1" t="inlineStr">
+        <is>
+          <t>coverage_ratio</t>
+        </is>
+      </c>
+      <c r="X1" s="1" t="inlineStr">
+        <is>
+          <t>coverage_error</t>
+        </is>
+      </c>
+      <c r="Y1" s="1" t="inlineStr">
+        <is>
+          <t>country_default_spread</t>
+        </is>
+      </c>
+      <c r="Z1" s="1" t="inlineStr">
+        <is>
+          <t>risk_free</t>
+        </is>
+      </c>
+      <c r="AA1" s="1" t="inlineStr">
+        <is>
+          <t>market_capitalization</t>
+        </is>
+      </c>
+      <c r="AB1" s="1" t="inlineStr">
+        <is>
+          <t>estimated_risk_premium</t>
+        </is>
+      </c>
+      <c r="AC1" s="1" t="inlineStr">
+        <is>
+          <t>estimated_cost_debt_pre_tax</t>
+        </is>
+      </c>
+      <c r="AD1" s="1" t="inlineStr">
+        <is>
+          <t>marginal_tax_rate</t>
+        </is>
+      </c>
+      <c r="AE1" s="1" t="inlineStr">
+        <is>
+          <t>deductions_max_percentage</t>
+        </is>
+      </c>
+      <c r="AF1" s="1" t="inlineStr">
+        <is>
+          <t>deductions_method</t>
+        </is>
+      </c>
+      <c r="AG1" s="1" t="inlineStr">
+        <is>
+          <t>adjusted_ebitda</t>
+        </is>
+      </c>
+      <c r="AH1" s="1" t="inlineStr">
+        <is>
+          <t>adjusted_depreciation</t>
+        </is>
+      </c>
+      <c r="AI1" s="1" t="inlineStr">
+        <is>
+          <t>reported_capital_spending</t>
+        </is>
+      </c>
+      <c r="AJ1" s="1" t="inlineStr">
+        <is>
+          <t>adjusted_debt</t>
+        </is>
+      </c>
+      <c r="AK1" s="1" t="inlineStr">
+        <is>
+          <t>estimated_mv_debt</t>
+        </is>
+      </c>
+      <c r="AL1" s="1" t="inlineStr">
+        <is>
+          <t>reported_interest_expense</t>
+        </is>
+      </c>
+      <c r="AM1" s="1" t="inlineStr">
+        <is>
+          <t>reported_bv_debt</t>
+        </is>
+      </c>
+      <c r="AN1" s="1" t="inlineStr">
+        <is>
+          <t>reported_cash</t>
+        </is>
+      </c>
+      <c r="AO1" s="1" t="inlineStr">
+        <is>
+          <t>flag_bankruptcy</t>
+        </is>
+      </c>
+      <c r="AP1" s="1" t="inlineStr">
+        <is>
+          <t>flag_refinanced</t>
+        </is>
+      </c>
+      <c r="AQ1" s="1" t="inlineStr">
+        <is>
+          <t>rating_firm_type</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Ceylon Tobacco Company PLC (COSE:CTC.N0000)</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>COSE:CTC.N0000</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Tobacco</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Sri Lanka</t>
+        </is>
+      </c>
+      <c r="E2">
+        <v>0.000948082830065788</v>
+      </c>
+      <c r="F2">
+        <v>0.96</v>
+      </c>
+      <c r="G2">
+        <v>1036.9</v>
+      </c>
+      <c r="H2">
+        <v>166.896476368957</v>
+      </c>
+      <c r="I2">
+        <v>921.284</v>
+      </c>
+      <c r="J2">
+        <v>1046.66511636896</v>
+      </c>
+      <c r="K2">
+        <v>0.984</v>
+      </c>
+      <c r="L2">
+        <v>996.36864</v>
+      </c>
+      <c r="M2">
+        <v>0.0753501196858145</v>
+      </c>
+      <c r="N2">
+        <v>0.0632287775570497</v>
+      </c>
+      <c r="O2">
+        <v>0.0615252231870509</v>
+      </c>
+      <c r="P2">
+        <v>0.015192</v>
+      </c>
+      <c r="Q2" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="R2" t="inlineStr">
+        <is>
+          <t>A2/A</t>
+        </is>
+      </c>
+      <c r="S2">
+        <v>0.07536323927126611</v>
+      </c>
+      <c r="T2">
+        <v>1.21611143892624</v>
+      </c>
+      <c r="U2">
+        <v>0.5514148652711079</v>
+      </c>
+      <c r="V2">
+        <v>10.072981197163</v>
+      </c>
+      <c r="W2">
+        <v>6.485161329854362</v>
+      </c>
+      <c r="X2">
+        <v>0</v>
+      </c>
+      <c r="Y2">
+        <v>0</v>
+      </c>
+      <c r="Z2">
+        <v>0.009299999999999999</v>
+      </c>
+      <c r="AA2">
+        <v>1036.9</v>
+      </c>
+      <c r="AB2">
+        <v>0.1198067796717549</v>
+      </c>
+      <c r="AC2">
+        <v>0.08545169887090408</v>
+      </c>
+      <c r="AD2">
+        <v>0.28</v>
+      </c>
+      <c r="AE2">
+        <v>0</v>
+      </c>
+      <c r="AF2">
+        <v>1</v>
+      </c>
+      <c r="AG2">
+        <v>138.1</v>
+      </c>
+      <c r="AH2">
+        <v>1.76</v>
+      </c>
+      <c r="AI2">
+        <v>4.230000000000006</v>
+      </c>
+      <c r="AJ2">
+        <v>0.984</v>
+      </c>
+      <c r="AK2">
+        <v>0.984</v>
+      </c>
+      <c r="AL2">
+        <v>0.174</v>
+      </c>
+      <c r="AM2">
+        <v>0.984</v>
+      </c>
+      <c r="AN2">
+        <v>116.6</v>
+      </c>
+      <c r="AO2" t="b">
+        <v>0</v>
+      </c>
+      <c r="AP2" t="b">
+        <v>1</v>
+      </c>
+      <c r="AQ2">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:Z101"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" s="1" customFormat="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>debt_capital</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>cost_capital</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>equity_value</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>enterprise_value</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>debt_issued</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>debt</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>cash</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>marketcap</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>drop_ebitda</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>ebitda</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>depreciation</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>ebit</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>interest_expense</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>taxable_income</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>taxes</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>net_income</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>operating_cash_flow</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>debt_equity</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>cost_equity</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>beta</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>cost_debt_pre_tax</t>
+        </is>
+      </c>
+      <c r="V1" s="1" t="inlineStr">
+        <is>
+          <t>tax_rate</t>
+        </is>
+      </c>
+      <c r="W1" s="1" t="inlineStr">
+        <is>
+          <t>cost_debt_after_tax</t>
+        </is>
+      </c>
+      <c r="X1" s="1" t="inlineStr">
+        <is>
+          <t>debt_rating</t>
+        </is>
+      </c>
+      <c r="Y1" s="1" t="inlineStr">
+        <is>
+          <t>coverage_ratio</t>
+        </is>
+      </c>
+      <c r="Z1" s="1" t="inlineStr">
+        <is>
+          <t>coverage_error</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>0.07531813123228891</v>
+      </c>
+      <c r="C2">
+        <v>1038.17533842089</v>
+      </c>
+      <c r="D2">
+        <v>921.57533842089</v>
+      </c>
+      <c r="E2">
+        <v>-0.984</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>116.6</v>
+      </c>
+      <c r="H2">
+        <v>1036.9</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <v>138.1</v>
+      </c>
+      <c r="K2">
+        <v>1.76</v>
+      </c>
+      <c r="L2">
+        <v>136.34</v>
+      </c>
+      <c r="M2">
+        <v>0</v>
+      </c>
+      <c r="N2">
+        <v>136.34</v>
+      </c>
+      <c r="O2">
+        <v>38.1752</v>
+      </c>
+      <c r="P2">
+        <v>98.1648</v>
+      </c>
+      <c r="Q2">
+        <v>99.9248</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>0.07531813123228891</v>
+      </c>
+      <c r="T2">
+        <v>0.5510383587069492</v>
+      </c>
+      <c r="U2">
+        <v>0.0162</v>
+      </c>
+      <c r="V2">
+        <v>0.28</v>
+      </c>
+      <c r="W2">
+        <v>0.011664</v>
+      </c>
+      <c r="X2" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y2">
+        <v>10000000</v>
+      </c>
+      <c r="Z2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3">
+        <v>0.01</v>
+      </c>
+      <c r="B3">
+        <v>0.07515692046483849</v>
+      </c>
+      <c r="C3">
+        <v>1029.267552244022</v>
+      </c>
+      <c r="D3">
+        <v>923.0463922440216</v>
+      </c>
+      <c r="E3">
+        <v>9.39484</v>
       </c>
       <c r="F3">
-        <v>0.075</v>
+        <v>10.37884</v>
       </c>
       <c r="G3">
-        <v>0.7571277719112989</v>
+        <v>116.6</v>
       </c>
       <c r="H3">
-        <v>0.7571277719112989</v>
+        <v>1036.9</v>
       </c>
       <c r="I3">
-        <v>0.8191681455641663</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>0.5114143671201702</v>
+        <v>138.1</v>
       </c>
       <c r="K3">
-        <v>101.7</v>
+        <v>1.76</v>
       </c>
       <c r="L3">
-        <v>0.5369588173178458</v>
+        <v>136.34</v>
       </c>
       <c r="M3">
-        <v>88.09999999999999</v>
+        <v>0.168137208</v>
       </c>
       <c r="N3">
-        <v>0.0775459906698354</v>
+        <v>136.171862792</v>
       </c>
       <c r="O3">
-        <v>0.8662733529990166</v>
+        <v>38.12812158176001</v>
       </c>
       <c r="P3">
-        <v>88.09999999999999</v>
+        <v>98.04374121024</v>
       </c>
       <c r="Q3">
-        <v>0.0775459906698354</v>
+        <v>99.80374121024001</v>
       </c>
       <c r="R3">
-        <v>0.8662733529990166</v>
+        <v>0.0101010101010101</v>
       </c>
       <c r="S3">
-        <v>0</v>
+        <v>0.07579826309579646</v>
       </c>
       <c r="T3">
-        <v>0</v>
+        <v>0.5550459104066361</v>
       </c>
       <c r="U3">
-        <v>116.9</v>
+        <v>0.0162</v>
       </c>
       <c r="V3">
-        <v>0.1028958718422674</v>
+        <v>0.28</v>
       </c>
       <c r="W3">
-        <v>2.398584905660377</v>
-      </c>
-      <c r="X3">
-        <v>0.1113574034932344</v>
+        <v>0.011664</v>
+      </c>
+      <c r="X3" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
       </c>
       <c r="Y3">
-        <v>2.287227502167143</v>
+        <v>810.8853573921605</v>
       </c>
       <c r="Z3">
-        <v>-1.963869898493049</v>
-      </c>
-      <c r="AA3">
-        <v>-1.004351281244175</v>
-      </c>
-      <c r="AB3">
-        <v>0.1112324405750077</v>
-      </c>
-      <c r="AC3">
-        <v>-1.115583721819183</v>
-      </c>
-      <c r="AD3">
-        <v>1.34</v>
-      </c>
-      <c r="AE3">
-        <v>1.457766150734461</v>
-      </c>
-      <c r="AF3">
-        <v>2.797766150734461</v>
-      </c>
-      <c r="AG3">
-        <v>-114.1022338492655</v>
-      </c>
-      <c r="AH3">
-        <v>0.002456556008701639</v>
-      </c>
-      <c r="AI3">
-        <v>0.05780775381286898</v>
-      </c>
-      <c r="AJ3">
-        <v>-0.1116462654111483</v>
-      </c>
-      <c r="AK3">
-        <v>1.665671722477543</v>
-      </c>
-      <c r="AL3">
-        <v>0</v>
-      </c>
-      <c r="AM3">
-        <v>-9.06</v>
-      </c>
-      <c r="AN3">
-        <v>0.008543629895053622</v>
-      </c>
-      <c r="AP3">
-        <v>-0.727497952393272</v>
-      </c>
-      <c r="AQ3">
-        <v>-17.07505518763797</v>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4">
+        <v>0.02</v>
+      </c>
+      <c r="B4">
+        <v>0.0749957096973881</v>
+      </c>
+      <c r="C4">
+        <v>1020.364469880377</v>
+      </c>
+      <c r="D4">
+        <v>924.5221498803767</v>
+      </c>
+      <c r="E4">
+        <v>19.77368</v>
+      </c>
+      <c r="F4">
+        <v>20.75768</v>
+      </c>
+      <c r="G4">
+        <v>116.6</v>
+      </c>
+      <c r="H4">
+        <v>1036.9</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>138.1</v>
+      </c>
+      <c r="K4">
+        <v>1.76</v>
+      </c>
+      <c r="L4">
+        <v>136.34</v>
+      </c>
+      <c r="M4">
+        <v>0.336274416</v>
+      </c>
+      <c r="N4">
+        <v>136.003725584</v>
+      </c>
+      <c r="O4">
+        <v>38.08104316352</v>
+      </c>
+      <c r="P4">
+        <v>97.92268242047999</v>
+      </c>
+      <c r="Q4">
+        <v>99.68268242047999</v>
+      </c>
+      <c r="R4">
+        <v>0.02040816326530612</v>
+      </c>
+      <c r="S4">
+        <v>0.07628819356876336</v>
+      </c>
+      <c r="T4">
+        <v>0.5591352488757043</v>
+      </c>
+      <c r="U4">
+        <v>0.0162</v>
+      </c>
+      <c r="V4">
+        <v>0.28</v>
+      </c>
+      <c r="W4">
+        <v>0.011664</v>
+      </c>
+      <c r="X4" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y4">
+        <v>405.4426786960802</v>
+      </c>
+      <c r="Z4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5">
+        <v>0.03</v>
+      </c>
+      <c r="B5">
+        <v>0.07483449892993768</v>
+      </c>
+      <c r="C5">
+        <v>1011.466113927317</v>
+      </c>
+      <c r="D5">
+        <v>926.0026339273173</v>
+      </c>
+      <c r="E5">
+        <v>30.15252</v>
+      </c>
+      <c r="F5">
+        <v>31.13652</v>
+      </c>
+      <c r="G5">
+        <v>116.6</v>
+      </c>
+      <c r="H5">
+        <v>1036.9</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>138.1</v>
+      </c>
+      <c r="K5">
+        <v>1.76</v>
+      </c>
+      <c r="L5">
+        <v>136.34</v>
+      </c>
+      <c r="M5">
+        <v>0.5044116239999999</v>
+      </c>
+      <c r="N5">
+        <v>135.835588376</v>
+      </c>
+      <c r="O5">
+        <v>38.03396474528</v>
+      </c>
+      <c r="P5">
+        <v>97.80162363072</v>
+      </c>
+      <c r="Q5">
+        <v>99.56162363072001</v>
+      </c>
+      <c r="R5">
+        <v>0.03092783505154639</v>
+      </c>
+      <c r="S5">
+        <v>0.07678822570096668</v>
+      </c>
+      <c r="T5">
+        <v>0.5633089036018668</v>
+      </c>
+      <c r="U5">
+        <v>0.0162</v>
+      </c>
+      <c r="V5">
+        <v>0.28</v>
+      </c>
+      <c r="W5">
+        <v>0.011664</v>
+      </c>
+      <c r="X5" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y5">
+        <v>270.2951191307201</v>
+      </c>
+      <c r="Z5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6">
+        <v>0.04</v>
+      </c>
+      <c r="B6">
+        <v>0.07467328816248728</v>
+      </c>
+      <c r="C6">
+        <v>1002.572507127182</v>
+      </c>
+      <c r="D6">
+        <v>927.487867127182</v>
+      </c>
+      <c r="E6">
+        <v>40.53136</v>
+      </c>
+      <c r="F6">
+        <v>41.51536</v>
+      </c>
+      <c r="G6">
+        <v>116.6</v>
+      </c>
+      <c r="H6">
+        <v>1036.9</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>138.1</v>
+      </c>
+      <c r="K6">
+        <v>1.76</v>
+      </c>
+      <c r="L6">
+        <v>136.34</v>
+      </c>
+      <c r="M6">
+        <v>0.6725488319999999</v>
+      </c>
+      <c r="N6">
+        <v>135.667451168</v>
+      </c>
+      <c r="O6">
+        <v>37.98688632704</v>
+      </c>
+      <c r="P6">
+        <v>97.68056484096002</v>
+      </c>
+      <c r="Q6">
+        <v>99.44056484096002</v>
+      </c>
+      <c r="R6">
+        <v>0.04166666666666667</v>
+      </c>
+      <c r="S6">
+        <v>0.07729867516925758</v>
+      </c>
+      <c r="T6">
+        <v>0.5675695094681577</v>
+      </c>
+      <c r="U6">
+        <v>0.0162</v>
+      </c>
+      <c r="V6">
+        <v>0.28</v>
+      </c>
+      <c r="W6">
+        <v>0.011664</v>
+      </c>
+      <c r="X6" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y6">
+        <v>202.7213393480401</v>
+      </c>
+      <c r="Z6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7">
+        <v>0.05</v>
+      </c>
+      <c r="B7">
+        <v>0.07451207739503687</v>
+      </c>
+      <c r="C7">
+        <v>993.6836723684519</v>
+      </c>
+      <c r="D7">
+        <v>928.9778723684518</v>
+      </c>
+      <c r="E7">
+        <v>50.9102</v>
+      </c>
+      <c r="F7">
+        <v>51.8942</v>
+      </c>
+      <c r="G7">
+        <v>116.6</v>
+      </c>
+      <c r="H7">
+        <v>1036.9</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>138.1</v>
+      </c>
+      <c r="K7">
+        <v>1.76</v>
+      </c>
+      <c r="L7">
+        <v>136.34</v>
+      </c>
+      <c r="M7">
+        <v>0.84068604</v>
+      </c>
+      <c r="N7">
+        <v>135.49931396</v>
+      </c>
+      <c r="O7">
+        <v>37.9398079088</v>
+      </c>
+      <c r="P7">
+        <v>97.5595060512</v>
+      </c>
+      <c r="Q7">
+        <v>99.31950605120001</v>
+      </c>
+      <c r="R7">
+        <v>0.05263157894736843</v>
+      </c>
+      <c r="S7">
+        <v>0.07781987094214407</v>
+      </c>
+      <c r="T7">
+        <v>0.5719198123000546</v>
+      </c>
+      <c r="U7">
+        <v>0.0162</v>
+      </c>
+      <c r="V7">
+        <v>0.28</v>
+      </c>
+      <c r="W7">
+        <v>0.011664</v>
+      </c>
+      <c r="X7" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y7">
+        <v>162.1770714784321</v>
+      </c>
+      <c r="Z7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8">
+        <v>0.06</v>
+      </c>
+      <c r="B8">
+        <v>0.07435086662758644</v>
+      </c>
+      <c r="C8">
+        <v>984.7996326869252</v>
+      </c>
+      <c r="D8">
+        <v>930.4726726869253</v>
+      </c>
+      <c r="E8">
+        <v>61.28904</v>
+      </c>
+      <c r="F8">
+        <v>62.27304</v>
+      </c>
+      <c r="G8">
+        <v>116.6</v>
+      </c>
+      <c r="H8">
+        <v>1036.9</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <v>138.1</v>
+      </c>
+      <c r="K8">
+        <v>1.76</v>
+      </c>
+      <c r="L8">
+        <v>136.34</v>
+      </c>
+      <c r="M8">
+        <v>1.008823248</v>
+      </c>
+      <c r="N8">
+        <v>135.331176752</v>
+      </c>
+      <c r="O8">
+        <v>37.89272949056001</v>
+      </c>
+      <c r="P8">
+        <v>97.43844726143999</v>
+      </c>
+      <c r="Q8">
+        <v>99.19844726143999</v>
+      </c>
+      <c r="R8">
+        <v>0.06382978723404255</v>
+      </c>
+      <c r="S8">
+        <v>0.0783521559867941</v>
+      </c>
+      <c r="T8">
+        <v>0.5763626747666728</v>
+      </c>
+      <c r="U8">
+        <v>0.0162</v>
+      </c>
+      <c r="V8">
+        <v>0.28</v>
+      </c>
+      <c r="W8">
+        <v>0.011664</v>
+      </c>
+      <c r="X8" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y8">
+        <v>135.1475595653601</v>
+      </c>
+      <c r="Z8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="B9">
+        <v>0.07418965586013604</v>
+      </c>
+      <c r="C9">
+        <v>975.9204112669055</v>
+      </c>
+      <c r="D9">
+        <v>931.9722912669055</v>
+      </c>
+      <c r="E9">
+        <v>71.66788000000001</v>
+      </c>
+      <c r="F9">
+        <v>72.65188000000001</v>
+      </c>
+      <c r="G9">
+        <v>116.6</v>
+      </c>
+      <c r="H9">
+        <v>1036.9</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <v>138.1</v>
+      </c>
+      <c r="K9">
+        <v>1.76</v>
+      </c>
+      <c r="L9">
+        <v>136.34</v>
+      </c>
+      <c r="M9">
+        <v>1.176960456</v>
+      </c>
+      <c r="N9">
+        <v>135.163039544</v>
+      </c>
+      <c r="O9">
+        <v>37.84565107232001</v>
+      </c>
+      <c r="P9">
+        <v>97.31738847168</v>
+      </c>
+      <c r="Q9">
+        <v>99.07738847168001</v>
+      </c>
+      <c r="R9">
+        <v>0.07526881720430109</v>
+      </c>
+      <c r="S9">
+        <v>0.07889588802165166</v>
+      </c>
+      <c r="T9">
+        <v>0.5809010826626806</v>
+      </c>
+      <c r="U9">
+        <v>0.0162</v>
+      </c>
+      <c r="V9">
+        <v>0.28</v>
+      </c>
+      <c r="W9">
+        <v>0.011664</v>
+      </c>
+      <c r="X9" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y9">
+        <v>115.8407653417372</v>
+      </c>
+      <c r="Z9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10">
+        <v>0.08</v>
+      </c>
+      <c r="B10">
+        <v>0.07402844509268564</v>
+      </c>
+      <c r="C10">
+        <v>967.0460314423988</v>
+      </c>
+      <c r="D10">
+        <v>933.4767514423988</v>
+      </c>
+      <c r="E10">
+        <v>82.04672000000001</v>
+      </c>
+      <c r="F10">
+        <v>83.03072</v>
+      </c>
+      <c r="G10">
+        <v>116.6</v>
+      </c>
+      <c r="H10">
+        <v>1036.9</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <v>138.1</v>
+      </c>
+      <c r="K10">
+        <v>1.76</v>
+      </c>
+      <c r="L10">
+        <v>136.34</v>
+      </c>
+      <c r="M10">
+        <v>1.345097664</v>
+      </c>
+      <c r="N10">
+        <v>134.994902336</v>
+      </c>
+      <c r="O10">
+        <v>37.79857265408</v>
+      </c>
+      <c r="P10">
+        <v>97.19632968191999</v>
+      </c>
+      <c r="Q10">
+        <v>98.95632968192</v>
+      </c>
+      <c r="R10">
+        <v>0.08695652173913043</v>
+      </c>
+      <c r="S10">
+        <v>0.07945144031813656</v>
+      </c>
+      <c r="T10">
+        <v>0.585538151599906</v>
+      </c>
+      <c r="U10">
+        <v>0.0162</v>
+      </c>
+      <c r="V10">
+        <v>0.28</v>
+      </c>
+      <c r="W10">
+        <v>0.011664</v>
+      </c>
+      <c r="X10" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y10">
+        <v>101.36066967402</v>
+      </c>
+      <c r="Z10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11">
+        <v>0.09</v>
+      </c>
+      <c r="B11">
+        <v>0.07386723432523523</v>
+      </c>
+      <c r="C11">
+        <v>958.1765166983259</v>
+      </c>
+      <c r="D11">
+        <v>934.986076698326</v>
+      </c>
+      <c r="E11">
+        <v>92.42556</v>
+      </c>
+      <c r="F11">
+        <v>93.40956</v>
+      </c>
+      <c r="G11">
+        <v>116.6</v>
+      </c>
+      <c r="H11">
+        <v>1036.9</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <v>138.1</v>
+      </c>
+      <c r="K11">
+        <v>1.76</v>
+      </c>
+      <c r="L11">
+        <v>136.34</v>
+      </c>
+      <c r="M11">
+        <v>1.513234872</v>
+      </c>
+      <c r="N11">
+        <v>134.826765128</v>
+      </c>
+      <c r="O11">
+        <v>37.75149423584001</v>
+      </c>
+      <c r="P11">
+        <v>97.07527089216001</v>
+      </c>
+      <c r="Q11">
+        <v>98.83527089216001</v>
+      </c>
+      <c r="R11">
+        <v>0.0989010989010989</v>
+      </c>
+      <c r="S11">
+        <v>0.08001920255520355</v>
+      </c>
+      <c r="T11">
+        <v>0.5902771341401474</v>
+      </c>
+      <c r="U11">
+        <v>0.0162</v>
+      </c>
+      <c r="V11">
+        <v>0.28</v>
+      </c>
+      <c r="W11">
+        <v>0.011664</v>
+      </c>
+      <c r="X11" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y11">
+        <v>90.09837304357337</v>
+      </c>
+      <c r="Z11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12">
+        <v>0.1</v>
+      </c>
+      <c r="B12">
+        <v>0.07370602355778481</v>
+      </c>
+      <c r="C12">
+        <v>949.3118906717431</v>
+      </c>
+      <c r="D12">
+        <v>936.5002906717432</v>
+      </c>
+      <c r="E12">
+        <v>102.8044</v>
+      </c>
+      <c r="F12">
+        <v>103.7884</v>
+      </c>
+      <c r="G12">
+        <v>116.6</v>
+      </c>
+      <c r="H12">
+        <v>1036.9</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <v>138.1</v>
+      </c>
+      <c r="K12">
+        <v>1.76</v>
+      </c>
+      <c r="L12">
+        <v>136.34</v>
+      </c>
+      <c r="M12">
+        <v>1.68137208</v>
+      </c>
+      <c r="N12">
+        <v>134.65862792</v>
+      </c>
+      <c r="O12">
+        <v>37.70441581760001</v>
+      </c>
+      <c r="P12">
+        <v>96.95421210240001</v>
+      </c>
+      <c r="Q12">
+        <v>98.71421210240001</v>
+      </c>
+      <c r="R12">
+        <v>0.1111111111111111</v>
+      </c>
+      <c r="S12">
+        <v>0.08059958173087202</v>
+      </c>
+      <c r="T12">
+        <v>0.5951214274035052</v>
+      </c>
+      <c r="U12">
+        <v>0.0162</v>
+      </c>
+      <c r="V12">
+        <v>0.28</v>
+      </c>
+      <c r="W12">
+        <v>0.011664</v>
+      </c>
+      <c r="X12" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y12">
+        <v>81.08853573921604</v>
+      </c>
+      <c r="Z12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13">
+        <v>0.11</v>
+      </c>
+      <c r="B13">
+        <v>0.0735448127903344</v>
+      </c>
+      <c r="C13">
+        <v>940.452177153076</v>
+      </c>
+      <c r="D13">
+        <v>938.019417153076</v>
+      </c>
+      <c r="E13">
+        <v>113.18324</v>
+      </c>
+      <c r="F13">
+        <v>114.16724</v>
+      </c>
+      <c r="G13">
+        <v>116.6</v>
+      </c>
+      <c r="H13">
+        <v>1036.9</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <v>138.1</v>
+      </c>
+      <c r="K13">
+        <v>1.76</v>
+      </c>
+      <c r="L13">
+        <v>136.34</v>
+      </c>
+      <c r="M13">
+        <v>1.849509288</v>
+      </c>
+      <c r="N13">
+        <v>134.490490712</v>
+      </c>
+      <c r="O13">
+        <v>37.65733739936</v>
+      </c>
+      <c r="P13">
+        <v>96.83315331263999</v>
+      </c>
+      <c r="Q13">
+        <v>98.59315331264</v>
+      </c>
+      <c r="R13">
+        <v>0.1235955056179775</v>
+      </c>
+      <c r="S13">
+        <v>0.08119300313520719</v>
+      </c>
+      <c r="T13">
+        <v>0.600074581189635</v>
+      </c>
+      <c r="U13">
+        <v>0.0162</v>
+      </c>
+      <c r="V13">
+        <v>0.28</v>
+      </c>
+      <c r="W13">
+        <v>0.011664</v>
+      </c>
+      <c r="X13" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y13">
+        <v>73.71685067201457</v>
+      </c>
+      <c r="Z13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14">
+        <v>0.12</v>
+      </c>
+      <c r="B14">
+        <v>0.07338360202288399</v>
+      </c>
+      <c r="C14">
+        <v>931.5974000873656</v>
+      </c>
+      <c r="D14">
+        <v>939.5434800873655</v>
+      </c>
+      <c r="E14">
+        <v>123.56208</v>
+      </c>
+      <c r="F14">
+        <v>124.54608</v>
+      </c>
+      <c r="G14">
+        <v>116.6</v>
+      </c>
+      <c r="H14">
+        <v>1036.9</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
+      <c r="J14">
+        <v>138.1</v>
+      </c>
+      <c r="K14">
+        <v>1.76</v>
+      </c>
+      <c r="L14">
+        <v>136.34</v>
+      </c>
+      <c r="M14">
+        <v>2.017646496</v>
+      </c>
+      <c r="N14">
+        <v>134.322353504</v>
+      </c>
+      <c r="O14">
+        <v>37.61025898112</v>
+      </c>
+      <c r="P14">
+        <v>96.71209452287999</v>
+      </c>
+      <c r="Q14">
+        <v>98.47209452288</v>
+      </c>
+      <c r="R14">
+        <v>0.1363636363636364</v>
+      </c>
+      <c r="S14">
+        <v>0.08179991138964091</v>
+      </c>
+      <c r="T14">
+        <v>0.6051403066527223</v>
+      </c>
+      <c r="U14">
+        <v>0.0162</v>
+      </c>
+      <c r="V14">
+        <v>0.28</v>
+      </c>
+      <c r="W14">
+        <v>0.011664</v>
+      </c>
+      <c r="X14" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y14">
+        <v>67.57377978268003</v>
+      </c>
+      <c r="Z14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15">
+        <v>0.13</v>
+      </c>
+      <c r="B15">
+        <v>0.07322239125543357</v>
+      </c>
+      <c r="C15">
+        <v>922.7475835755271</v>
+      </c>
+      <c r="D15">
+        <v>941.0725035755271</v>
+      </c>
+      <c r="E15">
+        <v>133.94092</v>
+      </c>
+      <c r="F15">
+        <v>134.92492</v>
+      </c>
+      <c r="G15">
+        <v>116.6</v>
+      </c>
+      <c r="H15">
+        <v>1036.9</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <v>138.1</v>
+      </c>
+      <c r="K15">
+        <v>1.76</v>
+      </c>
+      <c r="L15">
+        <v>136.34</v>
+      </c>
+      <c r="M15">
+        <v>2.185783704</v>
+      </c>
+      <c r="N15">
+        <v>134.154216296</v>
+      </c>
+      <c r="O15">
+        <v>37.56318056288001</v>
+      </c>
+      <c r="P15">
+        <v>96.59103573312001</v>
+      </c>
+      <c r="Q15">
+        <v>98.35103573312001</v>
+      </c>
+      <c r="R15">
+        <v>0.1494252873563219</v>
+      </c>
+      <c r="S15">
+        <v>0.08242077155796963</v>
+      </c>
+      <c r="T15">
+        <v>0.6103224855747312</v>
+      </c>
+      <c r="U15">
+        <v>0.0162</v>
+      </c>
+      <c r="V15">
+        <v>0.28</v>
+      </c>
+      <c r="W15">
+        <v>0.011664</v>
+      </c>
+      <c r="X15" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y15">
+        <v>62.37579672247387</v>
+      </c>
+      <c r="Z15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16">
+        <v>0.14</v>
+      </c>
+      <c r="B16">
+        <v>0.07306118048798318</v>
+      </c>
+      <c r="C16">
+        <v>913.9027518756191</v>
+      </c>
+      <c r="D16">
+        <v>942.6065118756192</v>
+      </c>
+      <c r="E16">
+        <v>144.31976</v>
+      </c>
+      <c r="F16">
+        <v>145.30376</v>
+      </c>
+      <c r="G16">
+        <v>116.6</v>
+      </c>
+      <c r="H16">
+        <v>1036.9</v>
+      </c>
+      <c r="I16">
+        <v>0</v>
+      </c>
+      <c r="J16">
+        <v>138.1</v>
+      </c>
+      <c r="K16">
+        <v>1.76</v>
+      </c>
+      <c r="L16">
+        <v>136.34</v>
+      </c>
+      <c r="M16">
+        <v>2.353920912</v>
+      </c>
+      <c r="N16">
+        <v>133.986079088</v>
+      </c>
+      <c r="O16">
+        <v>37.51610214464</v>
+      </c>
+      <c r="P16">
+        <v>96.46997694336</v>
+      </c>
+      <c r="Q16">
+        <v>98.22997694336</v>
+      </c>
+      <c r="R16">
+        <v>0.1627906976744186</v>
+      </c>
+      <c r="S16">
+        <v>0.08305607033486416</v>
+      </c>
+      <c r="T16">
+        <v>0.6156251802856241</v>
+      </c>
+      <c r="U16">
+        <v>0.0162</v>
+      </c>
+      <c r="V16">
+        <v>0.28</v>
+      </c>
+      <c r="W16">
+        <v>0.011664</v>
+      </c>
+      <c r="X16" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y16">
+        <v>57.9203826708686</v>
+      </c>
+      <c r="Z16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17">
+        <v>0.15</v>
+      </c>
+      <c r="B17">
+        <v>0.07289996972053278</v>
+      </c>
+      <c r="C17">
+        <v>905.0629294041286</v>
+      </c>
+      <c r="D17">
+        <v>944.1455294041285</v>
+      </c>
+      <c r="E17">
+        <v>154.6986</v>
+      </c>
+      <c r="F17">
+        <v>155.6826</v>
+      </c>
+      <c r="G17">
+        <v>116.6</v>
+      </c>
+      <c r="H17">
+        <v>1036.9</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>138.1</v>
+      </c>
+      <c r="K17">
+        <v>1.76</v>
+      </c>
+      <c r="L17">
+        <v>136.34</v>
+      </c>
+      <c r="M17">
+        <v>2.52205812</v>
+      </c>
+      <c r="N17">
+        <v>133.81794188</v>
+      </c>
+      <c r="O17">
+        <v>37.4690237264</v>
+      </c>
+      <c r="P17">
+        <v>96.34891815360001</v>
+      </c>
+      <c r="Q17">
+        <v>98.10891815360002</v>
+      </c>
+      <c r="R17">
+        <v>0.1764705882352941</v>
+      </c>
+      <c r="S17">
+        <v>0.08370631731827385</v>
+      </c>
+      <c r="T17">
+        <v>0.6210526442838321</v>
+      </c>
+      <c r="U17">
+        <v>0.0162</v>
+      </c>
+      <c r="V17">
+        <v>0.28</v>
+      </c>
+      <c r="W17">
+        <v>0.011664</v>
+      </c>
+      <c r="X17" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y17">
+        <v>54.05902382614402</v>
+      </c>
+      <c r="Z17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18">
+        <v>0.16</v>
+      </c>
+      <c r="B18">
+        <v>0.07273875895308236</v>
+      </c>
+      <c r="C18">
+        <v>896.2281407372639</v>
+      </c>
+      <c r="D18">
+        <v>945.6895807372638</v>
+      </c>
+      <c r="E18">
+        <v>165.07744</v>
+      </c>
+      <c r="F18">
+        <v>166.06144</v>
+      </c>
+      <c r="G18">
+        <v>116.6</v>
+      </c>
+      <c r="H18">
+        <v>1036.9</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>138.1</v>
+      </c>
+      <c r="K18">
+        <v>1.76</v>
+      </c>
+      <c r="L18">
+        <v>136.34</v>
+      </c>
+      <c r="M18">
+        <v>2.690195328</v>
+      </c>
+      <c r="N18">
+        <v>133.649804672</v>
+      </c>
+      <c r="O18">
+        <v>37.42194530816001</v>
+      </c>
+      <c r="P18">
+        <v>96.22785936384001</v>
+      </c>
+      <c r="Q18">
+        <v>97.98785936384002</v>
+      </c>
+      <c r="R18">
+        <v>0.1904761904761905</v>
+      </c>
+      <c r="S18">
+        <v>0.0843720463727171</v>
+      </c>
+      <c r="T18">
+        <v>0.6266093336153308</v>
+      </c>
+      <c r="U18">
+        <v>0.0162</v>
+      </c>
+      <c r="V18">
+        <v>0.28</v>
+      </c>
+      <c r="W18">
+        <v>0.011664</v>
+      </c>
+      <c r="X18" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y18">
+        <v>50.68033483701003</v>
+      </c>
+      <c r="Z18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19">
+        <v>0.17</v>
+      </c>
+      <c r="B19">
+        <v>0.07257754818563196</v>
+      </c>
+      <c r="C19">
+        <v>887.3984106122639</v>
+      </c>
+      <c r="D19">
+        <v>947.2386906122639</v>
+      </c>
+      <c r="E19">
+        <v>175.45628</v>
+      </c>
+      <c r="F19">
+        <v>176.44028</v>
+      </c>
+      <c r="G19">
+        <v>116.6</v>
+      </c>
+      <c r="H19">
+        <v>1036.9</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>138.1</v>
+      </c>
+      <c r="K19">
+        <v>1.76</v>
+      </c>
+      <c r="L19">
+        <v>136.34</v>
+      </c>
+      <c r="M19">
+        <v>2.858332536</v>
+      </c>
+      <c r="N19">
+        <v>133.481667464</v>
+      </c>
+      <c r="O19">
+        <v>37.37486688992</v>
+      </c>
+      <c r="P19">
+        <v>96.10680057408</v>
+      </c>
+      <c r="Q19">
+        <v>97.86680057408</v>
+      </c>
+      <c r="R19">
+        <v>0.2048192771084338</v>
+      </c>
+      <c r="S19">
+        <v>0.08505381709112284</v>
+      </c>
+      <c r="T19">
+        <v>0.6322999190752993</v>
+      </c>
+      <c r="U19">
+        <v>0.0162</v>
+      </c>
+      <c r="V19">
+        <v>0.28</v>
+      </c>
+      <c r="W19">
+        <v>0.011664</v>
+      </c>
+      <c r="X19" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y19">
+        <v>47.69913867012708</v>
+      </c>
+      <c r="Z19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20">
+        <v>0.18</v>
+      </c>
+      <c r="B20">
+        <v>0.07241633741818154</v>
+      </c>
+      <c r="C20">
+        <v>878.5737639287196</v>
+      </c>
+      <c r="D20">
+        <v>948.7928839287197</v>
+      </c>
+      <c r="E20">
+        <v>185.83512</v>
+      </c>
+      <c r="F20">
+        <v>186.81912</v>
+      </c>
+      <c r="G20">
+        <v>116.6</v>
+      </c>
+      <c r="H20">
+        <v>1036.9</v>
+      </c>
+      <c r="I20">
+        <v>0</v>
+      </c>
+      <c r="J20">
+        <v>138.1</v>
+      </c>
+      <c r="K20">
+        <v>1.76</v>
+      </c>
+      <c r="L20">
+        <v>136.34</v>
+      </c>
+      <c r="M20">
+        <v>3.026469744</v>
+      </c>
+      <c r="N20">
+        <v>133.313530256</v>
+      </c>
+      <c r="O20">
+        <v>37.32778847168001</v>
+      </c>
+      <c r="P20">
+        <v>95.98574178432</v>
+      </c>
+      <c r="Q20">
+        <v>97.74574178432</v>
+      </c>
+      <c r="R20">
+        <v>0.2195121951219512</v>
+      </c>
+      <c r="S20">
+        <v>0.08575221636363603</v>
+      </c>
+      <c r="T20">
+        <v>0.638129299302584</v>
+      </c>
+      <c r="U20">
+        <v>0.0162</v>
+      </c>
+      <c r="V20">
+        <v>0.28</v>
+      </c>
+      <c r="W20">
+        <v>0.011664</v>
+      </c>
+      <c r="X20" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y20">
+        <v>45.04918652178669</v>
+      </c>
+      <c r="Z20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21">
+        <v>0.19</v>
+      </c>
+      <c r="B21">
+        <v>0.07225512665073114</v>
+      </c>
+      <c r="C21">
+        <v>869.7542257499078</v>
+      </c>
+      <c r="D21">
+        <v>950.3521857499079</v>
+      </c>
+      <c r="E21">
+        <v>196.21396</v>
+      </c>
+      <c r="F21">
+        <v>197.19796</v>
+      </c>
+      <c r="G21">
+        <v>116.6</v>
+      </c>
+      <c r="H21">
+        <v>1036.9</v>
+      </c>
+      <c r="I21">
+        <v>0</v>
+      </c>
+      <c r="J21">
+        <v>138.1</v>
+      </c>
+      <c r="K21">
+        <v>1.76</v>
+      </c>
+      <c r="L21">
+        <v>136.34</v>
+      </c>
+      <c r="M21">
+        <v>3.194606952</v>
+      </c>
+      <c r="N21">
+        <v>133.145393048</v>
+      </c>
+      <c r="O21">
+        <v>37.28071005344001</v>
+      </c>
+      <c r="P21">
+        <v>95.86468299456001</v>
+      </c>
+      <c r="Q21">
+        <v>97.62468299456002</v>
+      </c>
+      <c r="R21">
+        <v>0.2345679012345679</v>
+      </c>
+      <c r="S21">
+        <v>0.08646786006263103</v>
+      </c>
+      <c r="T21">
+        <v>0.6441026148441228</v>
+      </c>
+      <c r="U21">
+        <v>0.0162</v>
+      </c>
+      <c r="V21">
+        <v>0.28</v>
+      </c>
+      <c r="W21">
+        <v>0.011664</v>
+      </c>
+      <c r="X21" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y21">
+        <v>42.67817670485056</v>
+      </c>
+      <c r="Z21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22">
+        <v>0.2</v>
+      </c>
+      <c r="B22">
+        <v>0.07209391588328072</v>
+      </c>
+      <c r="C22">
+        <v>860.9398213041381</v>
+      </c>
+      <c r="D22">
+        <v>951.9166213041383</v>
+      </c>
+      <c r="E22">
+        <v>206.5928</v>
+      </c>
+      <c r="F22">
+        <v>207.5768</v>
+      </c>
+      <c r="G22">
+        <v>116.6</v>
+      </c>
+      <c r="H22">
+        <v>1036.9</v>
+      </c>
+      <c r="I22">
+        <v>0</v>
+      </c>
+      <c r="J22">
+        <v>138.1</v>
+      </c>
+      <c r="K22">
+        <v>1.76</v>
+      </c>
+      <c r="L22">
+        <v>136.34</v>
+      </c>
+      <c r="M22">
+        <v>3.36274416</v>
+      </c>
+      <c r="N22">
+        <v>132.97725584</v>
+      </c>
+      <c r="O22">
+        <v>37.23363163520001</v>
+      </c>
+      <c r="P22">
+        <v>95.7436242048</v>
+      </c>
+      <c r="Q22">
+        <v>97.5036242048</v>
+      </c>
+      <c r="R22">
+        <v>0.25</v>
+      </c>
+      <c r="S22">
+        <v>0.0872013948541009</v>
+      </c>
+      <c r="T22">
+        <v>0.6502252632741999</v>
+      </c>
+      <c r="U22">
+        <v>0.0162</v>
+      </c>
+      <c r="V22">
+        <v>0.28</v>
+      </c>
+      <c r="W22">
+        <v>0.011664</v>
+      </c>
+      <c r="X22" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y22">
+        <v>40.54426786960801</v>
+      </c>
+      <c r="Z22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23">
+        <v>0.21</v>
+      </c>
+      <c r="B23">
+        <v>0.07193270511583032</v>
+      </c>
+      <c r="C23">
+        <v>852.1305759861142</v>
+      </c>
+      <c r="D23">
+        <v>953.4862159861142</v>
+      </c>
+      <c r="E23">
+        <v>216.97164</v>
+      </c>
+      <c r="F23">
+        <v>217.95564</v>
+      </c>
+      <c r="G23">
+        <v>116.6</v>
+      </c>
+      <c r="H23">
+        <v>1036.9</v>
+      </c>
+      <c r="I23">
+        <v>0</v>
+      </c>
+      <c r="J23">
+        <v>138.1</v>
+      </c>
+      <c r="K23">
+        <v>1.76</v>
+      </c>
+      <c r="L23">
+        <v>136.34</v>
+      </c>
+      <c r="M23">
+        <v>3.530881368</v>
+      </c>
+      <c r="N23">
+        <v>132.809118632</v>
+      </c>
+      <c r="O23">
+        <v>37.18655321696001</v>
+      </c>
+      <c r="P23">
+        <v>95.62256541504</v>
+      </c>
+      <c r="Q23">
+        <v>97.38256541504001</v>
+      </c>
+      <c r="R23">
+        <v>0.2658227848101266</v>
+      </c>
+      <c r="S23">
+        <v>0.08795350014662065</v>
+      </c>
+      <c r="T23">
+        <v>0.6565029154620007</v>
+      </c>
+      <c r="U23">
+        <v>0.0162</v>
+      </c>
+      <c r="V23">
+        <v>0.28</v>
+      </c>
+      <c r="W23">
+        <v>0.011664</v>
+      </c>
+      <c r="X23" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y23">
+        <v>38.61358844724573</v>
+      </c>
+      <c r="Z23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24">
+        <v>0.22</v>
+      </c>
+      <c r="B24">
+        <v>0.07177149434837991</v>
+      </c>
+      <c r="C24">
+        <v>843.3265153583068</v>
+      </c>
+      <c r="D24">
+        <v>955.0609953583069</v>
+      </c>
+      <c r="E24">
+        <v>227.35048</v>
+      </c>
+      <c r="F24">
+        <v>228.33448</v>
+      </c>
+      <c r="G24">
+        <v>116.6</v>
+      </c>
+      <c r="H24">
+        <v>1036.9</v>
+      </c>
+      <c r="I24">
+        <v>0</v>
+      </c>
+      <c r="J24">
+        <v>138.1</v>
+      </c>
+      <c r="K24">
+        <v>1.76</v>
+      </c>
+      <c r="L24">
+        <v>136.34</v>
+      </c>
+      <c r="M24">
+        <v>3.699018576</v>
+      </c>
+      <c r="N24">
+        <v>132.640981424</v>
+      </c>
+      <c r="O24">
+        <v>37.13947479872001</v>
+      </c>
+      <c r="P24">
+        <v>95.50150662528</v>
+      </c>
+      <c r="Q24">
+        <v>97.26150662528001</v>
+      </c>
+      <c r="R24">
+        <v>0.282051282051282</v>
+      </c>
+      <c r="S24">
+        <v>0.08872489019023067</v>
+      </c>
+      <c r="T24">
+        <v>0.6629415330905143</v>
+      </c>
+      <c r="U24">
+        <v>0.0162</v>
+      </c>
+      <c r="V24">
+        <v>0.28</v>
+      </c>
+      <c r="W24">
+        <v>0.011664</v>
+      </c>
+      <c r="X24" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y24">
+        <v>36.85842533600729</v>
+      </c>
+      <c r="Z24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25">
+        <v>0.23</v>
+      </c>
+      <c r="B25">
+        <v>0.0716102835809295</v>
+      </c>
+      <c r="C25">
+        <v>834.5276651523427</v>
+      </c>
+      <c r="D25">
+        <v>956.6409851523429</v>
+      </c>
+      <c r="E25">
+        <v>237.72932</v>
+      </c>
+      <c r="F25">
+        <v>238.71332</v>
+      </c>
+      <c r="G25">
+        <v>116.6</v>
+      </c>
+      <c r="H25">
+        <v>1036.9</v>
+      </c>
+      <c r="I25">
+        <v>0</v>
+      </c>
+      <c r="J25">
+        <v>138.1</v>
+      </c>
+      <c r="K25">
+        <v>1.76</v>
+      </c>
+      <c r="L25">
+        <v>136.34</v>
+      </c>
+      <c r="M25">
+        <v>3.867155784</v>
+      </c>
+      <c r="N25">
+        <v>132.472844216</v>
+      </c>
+      <c r="O25">
+        <v>37.09239638048</v>
+      </c>
+      <c r="P25">
+        <v>95.38044783551999</v>
+      </c>
+      <c r="Q25">
+        <v>97.14044783551999</v>
+      </c>
+      <c r="R25">
+        <v>0.2987012987012987</v>
+      </c>
+      <c r="S25">
+        <v>0.08951631633886947</v>
+      </c>
+      <c r="T25">
+        <v>0.6695473875405475</v>
+      </c>
+      <c r="U25">
+        <v>0.0162</v>
+      </c>
+      <c r="V25">
+        <v>0.28</v>
+      </c>
+      <c r="W25">
+        <v>0.011664</v>
+      </c>
+      <c r="X25" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y25">
+        <v>35.25588510400697</v>
+      </c>
+      <c r="Z25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26">
+        <v>0.24</v>
+      </c>
+      <c r="B26">
+        <v>0.07144907281347909</v>
+      </c>
+      <c r="C26">
+        <v>825.7340512704055</v>
+      </c>
+      <c r="D26">
+        <v>958.2262112704055</v>
+      </c>
+      <c r="E26">
+        <v>248.10816</v>
+      </c>
+      <c r="F26">
+        <v>249.09216</v>
+      </c>
+      <c r="G26">
+        <v>116.6</v>
+      </c>
+      <c r="H26">
+        <v>1036.9</v>
+      </c>
+      <c r="I26">
+        <v>0</v>
+      </c>
+      <c r="J26">
+        <v>138.1</v>
+      </c>
+      <c r="K26">
+        <v>1.76</v>
+      </c>
+      <c r="L26">
+        <v>136.34</v>
+      </c>
+      <c r="M26">
+        <v>4.035292992</v>
+      </c>
+      <c r="N26">
+        <v>132.304707008</v>
+      </c>
+      <c r="O26">
+        <v>37.04531796224001</v>
+      </c>
+      <c r="P26">
+        <v>95.25938904576</v>
+      </c>
+      <c r="Q26">
+        <v>97.01938904576001</v>
+      </c>
+      <c r="R26">
+        <v>0.3157894736842105</v>
+      </c>
+      <c r="S26">
+        <v>0.09032856949141986</v>
+      </c>
+      <c r="T26">
+        <v>0.6763270802655819</v>
+      </c>
+      <c r="U26">
+        <v>0.0162</v>
+      </c>
+      <c r="V26">
+        <v>0.28</v>
+      </c>
+      <c r="W26">
+        <v>0.011664</v>
+      </c>
+      <c r="X26" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y26">
+        <v>33.78688989134002</v>
+      </c>
+      <c r="Z26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27">
+        <v>0.25</v>
+      </c>
+      <c r="B27">
+        <v>0.07128786204602869</v>
+      </c>
+      <c r="C27">
+        <v>816.9456997866507</v>
+      </c>
+      <c r="D27">
+        <v>959.8166997866508</v>
+      </c>
+      <c r="E27">
+        <v>258.487</v>
+      </c>
+      <c r="F27">
+        <v>259.471</v>
+      </c>
+      <c r="G27">
+        <v>116.6</v>
+      </c>
+      <c r="H27">
+        <v>1036.9</v>
+      </c>
+      <c r="I27">
+        <v>0</v>
+      </c>
+      <c r="J27">
+        <v>138.1</v>
+      </c>
+      <c r="K27">
+        <v>1.76</v>
+      </c>
+      <c r="L27">
+        <v>136.34</v>
+      </c>
+      <c r="M27">
+        <v>4.2034302</v>
+      </c>
+      <c r="N27">
+        <v>132.1365698</v>
+      </c>
+      <c r="O27">
+        <v>36.99823954400001</v>
+      </c>
+      <c r="P27">
+        <v>95.13833025600002</v>
+      </c>
+      <c r="Q27">
+        <v>96.89833025600002</v>
+      </c>
+      <c r="R27">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="S27">
+        <v>0.09116248272803824</v>
+      </c>
+      <c r="T27">
+        <v>0.683287564796617</v>
+      </c>
+      <c r="U27">
+        <v>0.0162</v>
+      </c>
+      <c r="V27">
+        <v>0.28</v>
+      </c>
+      <c r="W27">
+        <v>0.011664</v>
+      </c>
+      <c r="X27" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y27">
+        <v>32.43541429568642</v>
+      </c>
+      <c r="Z27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28">
+        <v>0.26</v>
+      </c>
+      <c r="B28">
+        <v>0.07112665127857828</v>
+      </c>
+      <c r="C28">
+        <v>808.1626369486369</v>
+      </c>
+      <c r="D28">
+        <v>961.412476948637</v>
+      </c>
+      <c r="E28">
+        <v>268.86584</v>
+      </c>
+      <c r="F28">
+        <v>269.84984</v>
+      </c>
+      <c r="G28">
+        <v>116.6</v>
+      </c>
+      <c r="H28">
+        <v>1036.9</v>
+      </c>
+      <c r="I28">
+        <v>0</v>
+      </c>
+      <c r="J28">
+        <v>138.1</v>
+      </c>
+      <c r="K28">
+        <v>1.76</v>
+      </c>
+      <c r="L28">
+        <v>136.34</v>
+      </c>
+      <c r="M28">
+        <v>4.371567408000001</v>
+      </c>
+      <c r="N28">
+        <v>131.968432592</v>
+      </c>
+      <c r="O28">
+        <v>36.95116112576</v>
+      </c>
+      <c r="P28">
+        <v>95.01727146624</v>
+      </c>
+      <c r="Q28">
+        <v>96.77727146624001</v>
+      </c>
+      <c r="R28">
+        <v>0.3513513513513514</v>
+      </c>
+      <c r="S28">
+        <v>0.09201893416024091</v>
+      </c>
+      <c r="T28">
+        <v>0.6904361705311937</v>
+      </c>
+      <c r="U28">
+        <v>0.0162</v>
+      </c>
+      <c r="V28">
+        <v>0.28</v>
+      </c>
+      <c r="W28">
+        <v>0.011664</v>
+      </c>
+      <c r="X28" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y28">
+        <v>31.18789836123693</v>
+      </c>
+      <c r="Z28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29">
+        <v>0.27</v>
+      </c>
+      <c r="B29">
+        <v>0.07096544051112787</v>
+      </c>
+      <c r="C29">
+        <v>799.3848891787682</v>
+      </c>
+      <c r="D29">
+        <v>963.0135691787681</v>
+      </c>
+      <c r="E29">
+        <v>279.24468</v>
+      </c>
+      <c r="F29">
+        <v>280.22868</v>
+      </c>
+      <c r="G29">
+        <v>116.6</v>
+      </c>
+      <c r="H29">
+        <v>1036.9</v>
+      </c>
+      <c r="I29">
+        <v>0</v>
+      </c>
+      <c r="J29">
+        <v>138.1</v>
+      </c>
+      <c r="K29">
+        <v>1.76</v>
+      </c>
+      <c r="L29">
+        <v>136.34</v>
+      </c>
+      <c r="M29">
+        <v>4.539704616</v>
+      </c>
+      <c r="N29">
+        <v>131.800295384</v>
+      </c>
+      <c r="O29">
+        <v>36.90408270752</v>
+      </c>
+      <c r="P29">
+        <v>94.89621267648</v>
+      </c>
+      <c r="Q29">
+        <v>96.65621267648001</v>
+      </c>
+      <c r="R29">
+        <v>0.3698630136986302</v>
+      </c>
+      <c r="S29">
+        <v>0.09289885001524364</v>
+      </c>
+      <c r="T29">
+        <v>0.6977806284776764</v>
+      </c>
+      <c r="U29">
+        <v>0.0162</v>
+      </c>
+      <c r="V29">
+        <v>0.28</v>
+      </c>
+      <c r="W29">
+        <v>0.011664</v>
+      </c>
+      <c r="X29" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y29">
+        <v>30.03279101452446</v>
+      </c>
+      <c r="Z29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30">
+        <v>0.28</v>
+      </c>
+      <c r="B30">
+        <v>0.07080422974367746</v>
+      </c>
+      <c r="C30">
+        <v>790.6124830757517</v>
+      </c>
+      <c r="D30">
+        <v>964.6200030757517</v>
+      </c>
+      <c r="E30">
+        <v>289.62352</v>
+      </c>
+      <c r="F30">
+        <v>290.60752</v>
+      </c>
+      <c r="G30">
+        <v>116.6</v>
+      </c>
+      <c r="H30">
+        <v>1036.9</v>
+      </c>
+      <c r="I30">
+        <v>0</v>
+      </c>
+      <c r="J30">
+        <v>138.1</v>
+      </c>
+      <c r="K30">
+        <v>1.76</v>
+      </c>
+      <c r="L30">
+        <v>136.34</v>
+      </c>
+      <c r="M30">
+        <v>4.707841824</v>
+      </c>
+      <c r="N30">
+        <v>131.632158176</v>
+      </c>
+      <c r="O30">
+        <v>36.85700428928</v>
+      </c>
+      <c r="P30">
+        <v>94.77515388671999</v>
+      </c>
+      <c r="Q30">
+        <v>96.53515388672</v>
+      </c>
+      <c r="R30">
+        <v>0.388888888888889</v>
+      </c>
+      <c r="S30">
+        <v>0.0938032079773298</v>
+      </c>
+      <c r="T30">
+        <v>0.7053290991448949</v>
+      </c>
+      <c r="U30">
+        <v>0.0162</v>
+      </c>
+      <c r="V30">
+        <v>0.28</v>
+      </c>
+      <c r="W30">
+        <v>0.011664</v>
+      </c>
+      <c r="X30" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y30">
+        <v>28.9601913354343</v>
+      </c>
+      <c r="Z30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31">
+        <v>0.29</v>
+      </c>
+      <c r="B31">
+        <v>0.07064301897622703</v>
+      </c>
+      <c r="C31">
+        <v>781.8454454160741</v>
+      </c>
+      <c r="D31">
+        <v>966.2318054160741</v>
+      </c>
+      <c r="E31">
+        <v>300.00236</v>
+      </c>
+      <c r="F31">
+        <v>300.98636</v>
+      </c>
+      <c r="G31">
+        <v>116.6</v>
+      </c>
+      <c r="H31">
+        <v>1036.9</v>
+      </c>
+      <c r="I31">
+        <v>0</v>
+      </c>
+      <c r="J31">
+        <v>138.1</v>
+      </c>
+      <c r="K31">
+        <v>1.76</v>
+      </c>
+      <c r="L31">
+        <v>136.34</v>
+      </c>
+      <c r="M31">
+        <v>4.875979031999999</v>
+      </c>
+      <c r="N31">
+        <v>131.464020968</v>
+      </c>
+      <c r="O31">
+        <v>36.80992587104</v>
+      </c>
+      <c r="P31">
+        <v>94.65409509695999</v>
+      </c>
+      <c r="Q31">
+        <v>96.41409509696</v>
+      </c>
+      <c r="R31">
+        <v>0.4084507042253521</v>
+      </c>
+      <c r="S31">
+        <v>0.09473304081158739</v>
+      </c>
+      <c r="T31">
+        <v>0.7130902027886548</v>
+      </c>
+      <c r="U31">
+        <v>0.0162</v>
+      </c>
+      <c r="V31">
+        <v>0.28</v>
+      </c>
+      <c r="W31">
+        <v>0.011664</v>
+      </c>
+      <c r="X31" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y31">
+        <v>27.96156404800553</v>
+      </c>
+      <c r="Z31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32">
+        <v>0.3</v>
+      </c>
+      <c r="B32">
+        <v>0.07048180820877664</v>
+      </c>
+      <c r="C32">
+        <v>773.0838031554845</v>
+      </c>
+      <c r="D32">
+        <v>967.8490031554844</v>
+      </c>
+      <c r="E32">
+        <v>310.3812</v>
+      </c>
+      <c r="F32">
+        <v>311.3652</v>
+      </c>
+      <c r="G32">
+        <v>116.6</v>
+      </c>
+      <c r="H32">
+        <v>1036.9</v>
+      </c>
+      <c r="I32">
+        <v>0</v>
+      </c>
+      <c r="J32">
+        <v>138.1</v>
+      </c>
+      <c r="K32">
+        <v>1.76</v>
+      </c>
+      <c r="L32">
+        <v>136.34</v>
+      </c>
+      <c r="M32">
+        <v>5.04411624</v>
+      </c>
+      <c r="N32">
+        <v>131.29588376</v>
+      </c>
+      <c r="O32">
+        <v>36.7628474528</v>
+      </c>
+      <c r="P32">
+        <v>94.53303630720001</v>
+      </c>
+      <c r="Q32">
+        <v>96.29303630720001</v>
+      </c>
+      <c r="R32">
+        <v>0.4285714285714286</v>
+      </c>
+      <c r="S32">
+        <v>0.09568944029825235</v>
+      </c>
+      <c r="T32">
+        <v>0.7210730522508079</v>
+      </c>
+      <c r="U32">
+        <v>0.0162</v>
+      </c>
+      <c r="V32">
+        <v>0.28</v>
+      </c>
+      <c r="W32">
+        <v>0.011664</v>
+      </c>
+      <c r="X32" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y32">
+        <v>27.02951191307201</v>
+      </c>
+      <c r="Z32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33">
+        <v>0.31</v>
+      </c>
+      <c r="B33">
+        <v>0.07032059744132622</v>
+      </c>
+      <c r="C33">
+        <v>764.3275834305016</v>
+      </c>
+      <c r="D33">
+        <v>969.4716234305017</v>
+      </c>
+      <c r="E33">
+        <v>320.76004</v>
+      </c>
+      <c r="F33">
+        <v>321.74404</v>
+      </c>
+      <c r="G33">
+        <v>116.6</v>
+      </c>
+      <c r="H33">
+        <v>1036.9</v>
+      </c>
+      <c r="I33">
+        <v>0</v>
+      </c>
+      <c r="J33">
+        <v>138.1</v>
+      </c>
+      <c r="K33">
+        <v>1.76</v>
+      </c>
+      <c r="L33">
+        <v>136.34</v>
+      </c>
+      <c r="M33">
+        <v>5.212253447999999</v>
+      </c>
+      <c r="N33">
+        <v>131.127746552</v>
+      </c>
+      <c r="O33">
+        <v>36.71576903456</v>
+      </c>
+      <c r="P33">
+        <v>94.41197751743999</v>
+      </c>
+      <c r="Q33">
+        <v>96.17197751744</v>
+      </c>
+      <c r="R33">
+        <v>0.4492753623188406</v>
+      </c>
+      <c r="S33">
+        <v>0.09667356150916845</v>
+      </c>
+      <c r="T33">
+        <v>0.7292872886538927</v>
+      </c>
+      <c r="U33">
+        <v>0.0162</v>
+      </c>
+      <c r="V33">
+        <v>0.28</v>
+      </c>
+      <c r="W33">
+        <v>0.011664</v>
+      </c>
+      <c r="X33" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y33">
+        <v>26.15759217394066</v>
+      </c>
+      <c r="Z33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34">
+        <v>0.32</v>
+      </c>
+      <c r="B34">
+        <v>0.07015938667387581</v>
+      </c>
+      <c r="C34">
+        <v>755.5768135599291</v>
+      </c>
+      <c r="D34">
+        <v>971.0996935599291</v>
+      </c>
+      <c r="E34">
+        <v>331.13888</v>
+      </c>
+      <c r="F34">
+        <v>332.12288</v>
+      </c>
+      <c r="G34">
+        <v>116.6</v>
+      </c>
+      <c r="H34">
+        <v>1036.9</v>
+      </c>
+      <c r="I34">
+        <v>0</v>
+      </c>
+      <c r="J34">
+        <v>138.1</v>
+      </c>
+      <c r="K34">
+        <v>1.76</v>
+      </c>
+      <c r="L34">
+        <v>136.34</v>
+      </c>
+      <c r="M34">
+        <v>5.380390655999999</v>
+      </c>
+      <c r="N34">
+        <v>130.959609344</v>
+      </c>
+      <c r="O34">
+        <v>36.66869061632001</v>
+      </c>
+      <c r="P34">
+        <v>94.29091872767999</v>
+      </c>
+      <c r="Q34">
+        <v>96.05091872768</v>
+      </c>
+      <c r="R34">
+        <v>0.4705882352941177</v>
+      </c>
+      <c r="S34">
+        <v>0.09768662746158209</v>
+      </c>
+      <c r="T34">
+        <v>0.7377431202453038</v>
+      </c>
+      <c r="U34">
+        <v>0.0162</v>
+      </c>
+      <c r="V34">
+        <v>0.28</v>
+      </c>
+      <c r="W34">
+        <v>0.011664</v>
+      </c>
+      <c r="X34" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y34">
+        <v>25.34016741850501</v>
+      </c>
+      <c r="Z34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35">
+        <v>0.33</v>
+      </c>
+      <c r="B35">
+        <v>0.06999817590642539</v>
+      </c>
+      <c r="C35">
+        <v>746.8315210463884</v>
+      </c>
+      <c r="D35">
+        <v>972.7332410463883</v>
+      </c>
+      <c r="E35">
+        <v>341.5177200000001</v>
+      </c>
+      <c r="F35">
+        <v>342.50172</v>
+      </c>
+      <c r="G35">
+        <v>116.6</v>
+      </c>
+      <c r="H35">
+        <v>1036.9</v>
+      </c>
+      <c r="I35">
+        <v>0</v>
+      </c>
+      <c r="J35">
+        <v>138.1</v>
+      </c>
+      <c r="K35">
+        <v>1.76</v>
+      </c>
+      <c r="L35">
+        <v>136.34</v>
+      </c>
+      <c r="M35">
+        <v>5.548527864</v>
+      </c>
+      <c r="N35">
+        <v>130.791472136</v>
+      </c>
+      <c r="O35">
+        <v>36.62161219808001</v>
+      </c>
+      <c r="P35">
+        <v>94.16985993791999</v>
+      </c>
+      <c r="Q35">
+        <v>95.92985993792</v>
+      </c>
+      <c r="R35">
+        <v>0.4925373134328359</v>
+      </c>
+      <c r="S35">
+        <v>0.09872993418869463</v>
+      </c>
+      <c r="T35">
+        <v>0.7464513647200404</v>
+      </c>
+      <c r="U35">
+        <v>0.0162</v>
+      </c>
+      <c r="V35">
+        <v>0.28</v>
+      </c>
+      <c r="W35">
+        <v>0.011664</v>
+      </c>
+      <c r="X35" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y35">
+        <v>24.57228355733819</v>
+      </c>
+      <c r="Z35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36">
+        <v>0.34</v>
+      </c>
+      <c r="B36">
+        <v>0.069836965138975</v>
+      </c>
+      <c r="C36">
+        <v>738.0917335778688</v>
+      </c>
+      <c r="D36">
+        <v>974.372293577869</v>
+      </c>
+      <c r="E36">
+        <v>351.89656</v>
+      </c>
+      <c r="F36">
+        <v>352.88056</v>
+      </c>
+      <c r="G36">
+        <v>116.6</v>
+      </c>
+      <c r="H36">
+        <v>1036.9</v>
+      </c>
+      <c r="I36">
+        <v>0</v>
+      </c>
+      <c r="J36">
+        <v>138.1</v>
+      </c>
+      <c r="K36">
+        <v>1.76</v>
+      </c>
+      <c r="L36">
+        <v>136.34</v>
+      </c>
+      <c r="M36">
+        <v>5.716665072</v>
+      </c>
+      <c r="N36">
+        <v>130.623334928</v>
+      </c>
+      <c r="O36">
+        <v>36.57453377984</v>
+      </c>
+      <c r="P36">
+        <v>94.04880114815998</v>
+      </c>
+      <c r="Q36">
+        <v>95.80880114815999</v>
+      </c>
+      <c r="R36">
+        <v>0.5151515151515152</v>
+      </c>
+      <c r="S36">
+        <v>0.09980485627117426</v>
+      </c>
+      <c r="T36">
+        <v>0.7554234953909813</v>
+      </c>
+      <c r="U36">
+        <v>0.0162</v>
+      </c>
+      <c r="V36">
+        <v>0.28</v>
+      </c>
+      <c r="W36">
+        <v>0.011664</v>
+      </c>
+      <c r="X36" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y36">
+        <v>23.84956933506354</v>
+      </c>
+      <c r="Z36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37">
+        <v>0.35</v>
+      </c>
+      <c r="B37">
+        <v>0.0696757543715246</v>
+      </c>
+      <c r="C37">
+        <v>729.3574790292924</v>
+      </c>
+      <c r="D37">
+        <v>976.0168790292926</v>
+      </c>
+      <c r="E37">
+        <v>362.2754</v>
+      </c>
+      <c r="F37">
+        <v>363.2594</v>
+      </c>
+      <c r="G37">
+        <v>116.6</v>
+      </c>
+      <c r="H37">
+        <v>1036.9</v>
+      </c>
+      <c r="I37">
+        <v>0</v>
+      </c>
+      <c r="J37">
+        <v>138.1</v>
+      </c>
+      <c r="K37">
+        <v>1.76</v>
+      </c>
+      <c r="L37">
+        <v>136.34</v>
+      </c>
+      <c r="M37">
+        <v>5.88480228</v>
+      </c>
+      <c r="N37">
+        <v>130.45519772</v>
+      </c>
+      <c r="O37">
+        <v>36.5274553616</v>
+      </c>
+      <c r="P37">
+        <v>93.9277423584</v>
+      </c>
+      <c r="Q37">
+        <v>95.6877423584</v>
+      </c>
+      <c r="R37">
+        <v>0.5384615384615385</v>
+      </c>
+      <c r="S37">
+        <v>0.1009128528792686</v>
+      </c>
+      <c r="T37">
+        <v>0.764671691621028</v>
+      </c>
+      <c r="U37">
+        <v>0.0162</v>
+      </c>
+      <c r="V37">
+        <v>0.28</v>
+      </c>
+      <c r="W37">
+        <v>0.011664</v>
+      </c>
+      <c r="X37" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y37">
+        <v>23.16815306834744</v>
+      </c>
+      <c r="Z37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38">
+        <v>0.36</v>
+      </c>
+      <c r="B38">
+        <v>0.06951454360407419</v>
+      </c>
+      <c r="C38">
+        <v>720.6287854640918</v>
+      </c>
+      <c r="D38">
+        <v>977.6670254640918</v>
+      </c>
+      <c r="E38">
+        <v>372.65424</v>
+      </c>
+      <c r="F38">
+        <v>373.63824</v>
+      </c>
+      <c r="G38">
+        <v>116.6</v>
+      </c>
+      <c r="H38">
+        <v>1036.9</v>
+      </c>
+      <c r="I38">
+        <v>0</v>
+      </c>
+      <c r="J38">
+        <v>138.1</v>
+      </c>
+      <c r="K38">
+        <v>1.76</v>
+      </c>
+      <c r="L38">
+        <v>136.34</v>
+      </c>
+      <c r="M38">
+        <v>6.052939488</v>
+      </c>
+      <c r="N38">
+        <v>130.287060512</v>
+      </c>
+      <c r="O38">
+        <v>36.48037694336001</v>
+      </c>
+      <c r="P38">
+        <v>93.80668356864001</v>
+      </c>
+      <c r="Q38">
+        <v>95.56668356864002</v>
+      </c>
+      <c r="R38">
+        <v>0.5625</v>
+      </c>
+      <c r="S38">
+        <v>0.1020554743813659</v>
+      </c>
+      <c r="T38">
+        <v>0.7742088939832636</v>
+      </c>
+      <c r="U38">
+        <v>0.0162</v>
+      </c>
+      <c r="V38">
+        <v>0.28</v>
+      </c>
+      <c r="W38">
+        <v>0.011664</v>
+      </c>
+      <c r="X38" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y38">
+        <v>22.52459326089334</v>
+      </c>
+      <c r="Z38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39">
+        <v>0.37</v>
+      </c>
+      <c r="B39">
+        <v>0.06935333283662377</v>
+      </c>
+      <c r="C39">
+        <v>711.9056811358082</v>
+      </c>
+      <c r="D39">
+        <v>979.3227611358083</v>
+      </c>
+      <c r="E39">
+        <v>383.03308</v>
+      </c>
+      <c r="F39">
+        <v>384.01708</v>
+      </c>
+      <c r="G39">
+        <v>116.6</v>
+      </c>
+      <c r="H39">
+        <v>1036.9</v>
+      </c>
+      <c r="I39">
+        <v>0</v>
+      </c>
+      <c r="J39">
+        <v>138.1</v>
+      </c>
+      <c r="K39">
+        <v>1.76</v>
+      </c>
+      <c r="L39">
+        <v>136.34</v>
+      </c>
+      <c r="M39">
+        <v>6.221076696</v>
+      </c>
+      <c r="N39">
+        <v>130.118923304</v>
+      </c>
+      <c r="O39">
+        <v>36.43329852512</v>
+      </c>
+      <c r="P39">
+        <v>93.68562477888</v>
+      </c>
+      <c r="Q39">
+        <v>95.44562477888</v>
+      </c>
+      <c r="R39">
+        <v>0.5873015873015873</v>
+      </c>
+      <c r="S39">
+        <v>0.1032343695819425</v>
+      </c>
+      <c r="T39">
+        <v>0.7840488646744591</v>
+      </c>
+      <c r="U39">
+        <v>0.0162</v>
+      </c>
+      <c r="V39">
+        <v>0.28</v>
+      </c>
+      <c r="W39">
+        <v>0.011664</v>
+      </c>
+      <c r="X39" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y39">
+        <v>21.91582047005839</v>
+      </c>
+      <c r="Z39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40">
+        <v>0.38</v>
+      </c>
+      <c r="B40">
+        <v>0.06919212206917337</v>
+      </c>
+      <c r="C40">
+        <v>703.1881944897038</v>
+      </c>
+      <c r="D40">
+        <v>980.9841144897038</v>
+      </c>
+      <c r="E40">
+        <v>393.41192</v>
+      </c>
+      <c r="F40">
+        <v>394.39592</v>
+      </c>
+      <c r="G40">
+        <v>116.6</v>
+      </c>
+      <c r="H40">
+        <v>1036.9</v>
+      </c>
+      <c r="I40">
+        <v>0</v>
+      </c>
+      <c r="J40">
+        <v>138.1</v>
+      </c>
+      <c r="K40">
+        <v>1.76</v>
+      </c>
+      <c r="L40">
+        <v>136.34</v>
+      </c>
+      <c r="M40">
+        <v>6.389213903999999</v>
+      </c>
+      <c r="N40">
+        <v>129.950786096</v>
+      </c>
+      <c r="O40">
+        <v>36.38622010688</v>
+      </c>
+      <c r="P40">
+        <v>93.56456598912</v>
+      </c>
+      <c r="Q40">
+        <v>95.32456598912</v>
+      </c>
+      <c r="R40">
+        <v>0.6129032258064516</v>
+      </c>
+      <c r="S40">
+        <v>0.104451293659957</v>
+      </c>
+      <c r="T40">
+        <v>0.7942062537750481</v>
+      </c>
+      <c r="U40">
+        <v>0.0162</v>
+      </c>
+      <c r="V40">
+        <v>0.28</v>
+      </c>
+      <c r="W40">
+        <v>0.011664</v>
+      </c>
+      <c r="X40" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y40">
+        <v>21.33908835242528</v>
+      </c>
+      <c r="Z40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41">
+        <v>0.39</v>
+      </c>
+      <c r="B41">
+        <v>0.06903091130172297</v>
+      </c>
+      <c r="C41">
+        <v>694.4763541643897</v>
+      </c>
+      <c r="D41">
+        <v>982.6511141643898</v>
+      </c>
+      <c r="E41">
+        <v>403.79076</v>
+      </c>
+      <c r="F41">
+        <v>404.77476</v>
+      </c>
+      <c r="G41">
+        <v>116.6</v>
+      </c>
+      <c r="H41">
+        <v>1036.9</v>
+      </c>
+      <c r="I41">
+        <v>0</v>
+      </c>
+      <c r="J41">
+        <v>138.1</v>
+      </c>
+      <c r="K41">
+        <v>1.76</v>
+      </c>
+      <c r="L41">
+        <v>136.34</v>
+      </c>
+      <c r="M41">
+        <v>6.557351112</v>
+      </c>
+      <c r="N41">
+        <v>129.782648888</v>
+      </c>
+      <c r="O41">
+        <v>36.33914168864001</v>
+      </c>
+      <c r="P41">
+        <v>93.44350719936</v>
+      </c>
+      <c r="Q41">
+        <v>95.20350719936</v>
+      </c>
+      <c r="R41">
+        <v>0.639344262295082</v>
+      </c>
+      <c r="S41">
+        <v>0.1057081168880704</v>
+      </c>
+      <c r="T41">
+        <v>0.804696672026476</v>
+      </c>
+      <c r="U41">
+        <v>0.0162</v>
+      </c>
+      <c r="V41">
+        <v>0.28</v>
+      </c>
+      <c r="W41">
+        <v>0.011664</v>
+      </c>
+      <c r="X41" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y41">
+        <v>20.79193224082463</v>
+      </c>
+      <c r="Z41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42">
+        <v>0.4</v>
+      </c>
+      <c r="B42">
+        <v>0.06886970053427255</v>
+      </c>
+      <c r="C42">
+        <v>685.7701889934735</v>
+      </c>
+      <c r="D42">
+        <v>984.3237889934737</v>
+      </c>
+      <c r="E42">
+        <v>414.1696000000001</v>
+      </c>
+      <c r="F42">
+        <v>415.1536</v>
+      </c>
+      <c r="G42">
+        <v>116.6</v>
+      </c>
+      <c r="H42">
+        <v>1036.9</v>
+      </c>
+      <c r="I42">
+        <v>0</v>
+      </c>
+      <c r="J42">
+        <v>138.1</v>
+      </c>
+      <c r="K42">
+        <v>1.76</v>
+      </c>
+      <c r="L42">
+        <v>136.34</v>
+      </c>
+      <c r="M42">
+        <v>6.72548832</v>
+      </c>
+      <c r="N42">
+        <v>129.61451168</v>
+      </c>
+      <c r="O42">
+        <v>36.2920632704</v>
+      </c>
+      <c r="P42">
+        <v>93.32244840959999</v>
+      </c>
+      <c r="Q42">
+        <v>95.08244840959999</v>
+      </c>
+      <c r="R42">
+        <v>0.6666666666666667</v>
+      </c>
+      <c r="S42">
+        <v>0.1070068342237876</v>
+      </c>
+      <c r="T42">
+        <v>0.8155367708862847</v>
+      </c>
+      <c r="U42">
+        <v>0.0162</v>
+      </c>
+      <c r="V42">
+        <v>0.28</v>
+      </c>
+      <c r="W42">
+        <v>0.011664</v>
+      </c>
+      <c r="X42" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y42">
+        <v>20.27213393480401</v>
+      </c>
+      <c r="Z42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43">
+        <v>0.41</v>
+      </c>
+      <c r="B43">
+        <v>0.06870848976682215</v>
+      </c>
+      <c r="C43">
+        <v>677.0697280072196</v>
+      </c>
+      <c r="D43">
+        <v>986.0021680072197</v>
+      </c>
+      <c r="E43">
+        <v>424.5484400000001</v>
+      </c>
+      <c r="F43">
+        <v>425.5324400000001</v>
+      </c>
+      <c r="G43">
+        <v>116.6</v>
+      </c>
+      <c r="H43">
+        <v>1036.9</v>
+      </c>
+      <c r="I43">
+        <v>0</v>
+      </c>
+      <c r="J43">
+        <v>138.1</v>
+      </c>
+      <c r="K43">
+        <v>1.76</v>
+      </c>
+      <c r="L43">
+        <v>136.34</v>
+      </c>
+      <c r="M43">
+        <v>6.893625528</v>
+      </c>
+      <c r="N43">
+        <v>129.446374472</v>
+      </c>
+      <c r="O43">
+        <v>36.24498485216</v>
+      </c>
+      <c r="P43">
+        <v>93.20138961984</v>
+      </c>
+      <c r="Q43">
+        <v>94.96138961984001</v>
+      </c>
+      <c r="R43">
+        <v>0.6949152542372882</v>
+      </c>
+      <c r="S43">
+        <v>0.1083495758759697</v>
+      </c>
+      <c r="T43">
+        <v>0.8267443307243922</v>
+      </c>
+      <c r="U43">
+        <v>0.0162</v>
+      </c>
+      <c r="V43">
+        <v>0.28</v>
+      </c>
+      <c r="W43">
+        <v>0.011664</v>
+      </c>
+      <c r="X43" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y43">
+        <v>19.77769164371123</v>
+      </c>
+      <c r="Z43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44">
+        <v>0.42</v>
+      </c>
+      <c r="B44">
+        <v>0.06854727899937174</v>
+      </c>
+      <c r="C44">
+        <v>668.3750004342298</v>
+      </c>
+      <c r="D44">
+        <v>987.6862804342298</v>
+      </c>
+      <c r="E44">
+        <v>434.92728</v>
+      </c>
+      <c r="F44">
+        <v>435.91128</v>
+      </c>
+      <c r="G44">
+        <v>116.6</v>
+      </c>
+      <c r="H44">
+        <v>1036.9</v>
+      </c>
+      <c r="I44">
+        <v>0</v>
+      </c>
+      <c r="J44">
+        <v>138.1</v>
+      </c>
+      <c r="K44">
+        <v>1.76</v>
+      </c>
+      <c r="L44">
+        <v>136.34</v>
+      </c>
+      <c r="M44">
+        <v>7.061762735999999</v>
+      </c>
+      <c r="N44">
+        <v>129.278237264</v>
+      </c>
+      <c r="O44">
+        <v>36.19790643392</v>
+      </c>
+      <c r="P44">
+        <v>93.08033083008002</v>
+      </c>
+      <c r="Q44">
+        <v>94.84033083008002</v>
+      </c>
+      <c r="R44">
+        <v>0.7241379310344827</v>
+      </c>
+      <c r="S44">
+        <v>0.109738618964434</v>
+      </c>
+      <c r="T44">
+        <v>0.8383383581431241</v>
+      </c>
+      <c r="U44">
+        <v>0.0162</v>
+      </c>
+      <c r="V44">
+        <v>0.28</v>
+      </c>
+      <c r="W44">
+        <v>0.011664</v>
+      </c>
+      <c r="X44" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y44">
+        <v>19.30679422362287</v>
+      </c>
+      <c r="Z44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45">
+        <v>0.43</v>
+      </c>
+      <c r="B45">
+        <v>0.06838606823192132</v>
+      </c>
+      <c r="C45">
+        <v>659.6860357031402</v>
+      </c>
+      <c r="D45">
+        <v>989.3761557031402</v>
+      </c>
+      <c r="E45">
+        <v>445.30612</v>
+      </c>
+      <c r="F45">
+        <v>446.29012</v>
+      </c>
+      <c r="G45">
+        <v>116.6</v>
+      </c>
+      <c r="H45">
+        <v>1036.9</v>
+      </c>
+      <c r="I45">
+        <v>0</v>
+      </c>
+      <c r="J45">
+        <v>138.1</v>
+      </c>
+      <c r="K45">
+        <v>1.76</v>
+      </c>
+      <c r="L45">
+        <v>136.34</v>
+      </c>
+      <c r="M45">
+        <v>7.229899944</v>
+      </c>
+      <c r="N45">
+        <v>129.110100056</v>
+      </c>
+      <c r="O45">
+        <v>36.15082801568</v>
+      </c>
+      <c r="P45">
+        <v>92.95927204032</v>
+      </c>
+      <c r="Q45">
+        <v>94.71927204032001</v>
+      </c>
+      <c r="R45">
+        <v>0.7543859649122806</v>
+      </c>
+      <c r="S45">
+        <v>0.1111764004068795</v>
+      </c>
+      <c r="T45">
+        <v>0.8503391935414605</v>
+      </c>
+      <c r="U45">
+        <v>0.0162</v>
+      </c>
+      <c r="V45">
+        <v>0.28</v>
+      </c>
+      <c r="W45">
+        <v>0.011664</v>
+      </c>
+      <c r="X45" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y45">
+        <v>18.85779900912001</v>
+      </c>
+      <c r="Z45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46">
+        <v>0.44</v>
+      </c>
+      <c r="B46">
+        <v>0.06822485746447092</v>
+      </c>
+      <c r="C46">
+        <v>651.0028634443343</v>
+      </c>
+      <c r="D46">
+        <v>991.0718234443343</v>
+      </c>
+      <c r="E46">
+        <v>455.68496</v>
+      </c>
+      <c r="F46">
+        <v>456.66896</v>
+      </c>
+      <c r="G46">
+        <v>116.6</v>
+      </c>
+      <c r="H46">
+        <v>1036.9</v>
+      </c>
+      <c r="I46">
+        <v>0</v>
+      </c>
+      <c r="J46">
+        <v>138.1</v>
+      </c>
+      <c r="K46">
+        <v>1.76</v>
+      </c>
+      <c r="L46">
+        <v>136.34</v>
+      </c>
+      <c r="M46">
+        <v>7.398037152</v>
+      </c>
+      <c r="N46">
+        <v>128.941962848</v>
+      </c>
+      <c r="O46">
+        <v>36.10374959744001</v>
+      </c>
+      <c r="P46">
+        <v>92.83821325055999</v>
+      </c>
+      <c r="Q46">
+        <v>94.59821325055999</v>
+      </c>
+      <c r="R46">
+        <v>0.7857142857142857</v>
+      </c>
+      <c r="S46">
+        <v>0.1126655311865552</v>
+      </c>
+      <c r="T46">
+        <v>0.8627686302040234</v>
+      </c>
+      <c r="U46">
+        <v>0.0162</v>
+      </c>
+      <c r="V46">
+        <v>0.28</v>
+      </c>
+      <c r="W46">
+        <v>0.011664</v>
+      </c>
+      <c r="X46" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y46">
+        <v>18.42921266800365</v>
+      </c>
+      <c r="Z46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47">
+        <v>0.45</v>
+      </c>
+      <c r="B47">
+        <v>0.0680636466970205</v>
+      </c>
+      <c r="C47">
+        <v>642.3255134916762</v>
+      </c>
+      <c r="D47">
+        <v>992.7733134916763</v>
+      </c>
+      <c r="E47">
+        <v>466.0638</v>
+      </c>
+      <c r="F47">
+        <v>467.0478</v>
+      </c>
+      <c r="G47">
+        <v>116.6</v>
+      </c>
+      <c r="H47">
+        <v>1036.9</v>
+      </c>
+      <c r="I47">
+        <v>0</v>
+      </c>
+      <c r="J47">
+        <v>138.1</v>
+      </c>
+      <c r="K47">
+        <v>1.76</v>
+      </c>
+      <c r="L47">
+        <v>136.34</v>
+      </c>
+      <c r="M47">
+        <v>7.56617436</v>
+      </c>
+      <c r="N47">
+        <v>128.77382564</v>
+      </c>
+      <c r="O47">
+        <v>36.05667117920001</v>
+      </c>
+      <c r="P47">
+        <v>92.7171544608</v>
+      </c>
+      <c r="Q47">
+        <v>94.47715446080001</v>
+      </c>
+      <c r="R47">
+        <v>0.8181818181818181</v>
+      </c>
+      <c r="S47">
+        <v>0.1142088121764009</v>
+      </c>
+      <c r="T47">
+        <v>0.8756500463815882</v>
+      </c>
+      <c r="U47">
+        <v>0.0162</v>
+      </c>
+      <c r="V47">
+        <v>0.28</v>
+      </c>
+      <c r="W47">
+        <v>0.011664</v>
+      </c>
+      <c r="X47" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y47">
+        <v>18.01967460871468</v>
+      </c>
+      <c r="Z47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48">
+        <v>0.46</v>
+      </c>
+      <c r="B48">
+        <v>0.0679024359295701</v>
+      </c>
+      <c r="C48">
+        <v>633.6540158842591</v>
+      </c>
+      <c r="D48">
+        <v>994.4806558842591</v>
+      </c>
+      <c r="E48">
+        <v>476.44264</v>
+      </c>
+      <c r="F48">
+        <v>477.42664</v>
+      </c>
+      <c r="G48">
+        <v>116.6</v>
+      </c>
+      <c r="H48">
+        <v>1036.9</v>
+      </c>
+      <c r="I48">
+        <v>0</v>
+      </c>
+      <c r="J48">
+        <v>138.1</v>
+      </c>
+      <c r="K48">
+        <v>1.76</v>
+      </c>
+      <c r="L48">
+        <v>136.34</v>
+      </c>
+      <c r="M48">
+        <v>7.734311568</v>
+      </c>
+      <c r="N48">
+        <v>128.605688432</v>
+      </c>
+      <c r="O48">
+        <v>36.00959276096</v>
+      </c>
+      <c r="P48">
+        <v>92.59609567103999</v>
+      </c>
+      <c r="Q48">
+        <v>94.35609567103999</v>
+      </c>
+      <c r="R48">
+        <v>0.8518518518518519</v>
+      </c>
+      <c r="S48">
+        <v>0.1158092517214261</v>
+      </c>
+      <c r="T48">
+        <v>0.8890085520472113</v>
+      </c>
+      <c r="U48">
+        <v>0.0162</v>
+      </c>
+      <c r="V48">
+        <v>0.28</v>
+      </c>
+      <c r="W48">
+        <v>0.011664</v>
+      </c>
+      <c r="X48" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y48">
+        <v>17.62794255200349</v>
+      </c>
+      <c r="Z48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49">
+        <v>0.47</v>
+      </c>
+      <c r="B49">
+        <v>0.06774122516211969</v>
+      </c>
+      <c r="C49">
+        <v>624.9884008681743</v>
+      </c>
+      <c r="D49">
+        <v>996.1938808681742</v>
+      </c>
+      <c r="E49">
+        <v>486.8214800000001</v>
+      </c>
+      <c r="F49">
+        <v>487.80548</v>
+      </c>
+      <c r="G49">
+        <v>116.6</v>
+      </c>
+      <c r="H49">
+        <v>1036.9</v>
+      </c>
+      <c r="I49">
+        <v>0</v>
+      </c>
+      <c r="J49">
+        <v>138.1</v>
+      </c>
+      <c r="K49">
+        <v>1.76</v>
+      </c>
+      <c r="L49">
+        <v>136.34</v>
+      </c>
+      <c r="M49">
+        <v>7.902448776</v>
+      </c>
+      <c r="N49">
+        <v>128.437551224</v>
+      </c>
+      <c r="O49">
+        <v>35.96251434272001</v>
+      </c>
+      <c r="P49">
+        <v>92.47503688128</v>
+      </c>
+      <c r="Q49">
+        <v>94.23503688128001</v>
+      </c>
+      <c r="R49">
+        <v>0.8867924528301887</v>
+      </c>
+      <c r="S49">
+        <v>0.1174700852115466</v>
+      </c>
+      <c r="T49">
+        <v>0.902871152266254</v>
+      </c>
+      <c r="U49">
+        <v>0.0162</v>
+      </c>
+      <c r="V49">
+        <v>0.28</v>
+      </c>
+      <c r="W49">
+        <v>0.011664</v>
+      </c>
+      <c r="X49" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y49">
+        <v>17.25287994451405</v>
+      </c>
+      <c r="Z49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50">
+        <v>0.48</v>
+      </c>
+      <c r="B50">
+        <v>0.06758001439466926</v>
+      </c>
+      <c r="C50">
+        <v>616.3286988982957</v>
+      </c>
+      <c r="D50">
+        <v>997.9130188982957</v>
+      </c>
+      <c r="E50">
+        <v>497.20032</v>
+      </c>
+      <c r="F50">
+        <v>498.18432</v>
+      </c>
+      <c r="G50">
+        <v>116.6</v>
+      </c>
+      <c r="H50">
+        <v>1036.9</v>
+      </c>
+      <c r="I50">
+        <v>0</v>
+      </c>
+      <c r="J50">
+        <v>138.1</v>
+      </c>
+      <c r="K50">
+        <v>1.76</v>
+      </c>
+      <c r="L50">
+        <v>136.34</v>
+      </c>
+      <c r="M50">
+        <v>8.070585983999999</v>
+      </c>
+      <c r="N50">
+        <v>128.269414016</v>
+      </c>
+      <c r="O50">
+        <v>35.91543592448001</v>
+      </c>
+      <c r="P50">
+        <v>92.35397809152001</v>
+      </c>
+      <c r="Q50">
+        <v>94.11397809152001</v>
+      </c>
+      <c r="R50">
+        <v>0.923076923076923</v>
+      </c>
+      <c r="S50">
+        <v>0.1191947969128255</v>
+      </c>
+      <c r="T50">
+        <v>0.9172669294167983</v>
+      </c>
+      <c r="U50">
+        <v>0.0162</v>
+      </c>
+      <c r="V50">
+        <v>0.28</v>
+      </c>
+      <c r="W50">
+        <v>0.011664</v>
+      </c>
+      <c r="X50" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y50">
+        <v>16.89344494567001</v>
+      </c>
+      <c r="Z50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51">
+        <v>0.49</v>
+      </c>
+      <c r="B51">
+        <v>0.06741880362721886</v>
+      </c>
+      <c r="C51">
+        <v>607.6749406400857</v>
+      </c>
+      <c r="D51">
+        <v>999.6381006400856</v>
+      </c>
+      <c r="E51">
+        <v>507.57916</v>
+      </c>
+      <c r="F51">
+        <v>508.56316</v>
+      </c>
+      <c r="G51">
+        <v>116.6</v>
+      </c>
+      <c r="H51">
+        <v>1036.9</v>
+      </c>
+      <c r="I51">
+        <v>0</v>
+      </c>
+      <c r="J51">
+        <v>138.1</v>
+      </c>
+      <c r="K51">
+        <v>1.76</v>
+      </c>
+      <c r="L51">
+        <v>136.34</v>
+      </c>
+      <c r="M51">
+        <v>8.238723192</v>
+      </c>
+      <c r="N51">
+        <v>128.101276808</v>
+      </c>
+      <c r="O51">
+        <v>35.86835750624</v>
+      </c>
+      <c r="P51">
+        <v>92.23291930175999</v>
+      </c>
+      <c r="Q51">
+        <v>93.99291930176</v>
+      </c>
+      <c r="R51">
+        <v>0.9607843137254901</v>
+      </c>
+      <c r="S51">
+        <v>0.1209871443670958</v>
+      </c>
+      <c r="T51">
+        <v>0.9322272468477563</v>
+      </c>
+      <c r="U51">
+        <v>0.0162</v>
+      </c>
+      <c r="V51">
+        <v>0.28</v>
+      </c>
+      <c r="W51">
+        <v>0.011664</v>
+      </c>
+      <c r="X51" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y51">
+        <v>16.54868076310531</v>
+      </c>
+      <c r="Z51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52">
+        <v>0.5</v>
+      </c>
+      <c r="B52">
+        <v>0.06725759285976846</v>
+      </c>
+      <c r="C52">
+        <v>599.0271569714182</v>
+      </c>
+      <c r="D52">
+        <v>1001.369156971418</v>
+      </c>
+      <c r="E52">
+        <v>517.958</v>
+      </c>
+      <c r="F52">
+        <v>518.942</v>
+      </c>
+      <c r="G52">
+        <v>116.6</v>
+      </c>
+      <c r="H52">
+        <v>1036.9</v>
+      </c>
+      <c r="I52">
+        <v>0</v>
+      </c>
+      <c r="J52">
+        <v>138.1</v>
+      </c>
+      <c r="K52">
+        <v>1.76</v>
+      </c>
+      <c r="L52">
+        <v>136.34</v>
+      </c>
+      <c r="M52">
+        <v>8.406860399999999</v>
+      </c>
+      <c r="N52">
+        <v>127.9331396</v>
+      </c>
+      <c r="O52">
+        <v>35.821279088</v>
+      </c>
+      <c r="P52">
+        <v>92.11186051199999</v>
+      </c>
+      <c r="Q52">
+        <v>93.871860512</v>
+      </c>
+      <c r="R52">
+        <v>1</v>
+      </c>
+      <c r="S52">
+        <v>0.1228511857195369</v>
+      </c>
+      <c r="T52">
+        <v>0.9477859769759526</v>
+      </c>
+      <c r="U52">
+        <v>0.0162</v>
+      </c>
+      <c r="V52">
+        <v>0.28</v>
+      </c>
+      <c r="W52">
+        <v>0.011664</v>
+      </c>
+      <c r="X52" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y52">
+        <v>16.21770714784321</v>
+      </c>
+      <c r="Z52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53">
+        <v>0.51</v>
+      </c>
+      <c r="B53">
+        <v>0.06709638209231805</v>
+      </c>
+      <c r="C53">
+        <v>590.3853789844208</v>
+      </c>
+      <c r="D53">
+        <v>1003.106218984421</v>
+      </c>
+      <c r="E53">
+        <v>528.3368399999999</v>
+      </c>
+      <c r="F53">
+        <v>529.32084</v>
+      </c>
+      <c r="G53">
+        <v>116.6</v>
+      </c>
+      <c r="H53">
+        <v>1036.9</v>
+      </c>
+      <c r="I53">
+        <v>0</v>
+      </c>
+      <c r="J53">
+        <v>138.1</v>
+      </c>
+      <c r="K53">
+        <v>1.76</v>
+      </c>
+      <c r="L53">
+        <v>136.34</v>
+      </c>
+      <c r="M53">
+        <v>8.574997607999999</v>
+      </c>
+      <c r="N53">
+        <v>127.765002392</v>
+      </c>
+      <c r="O53">
+        <v>35.77420066976001</v>
+      </c>
+      <c r="P53">
+        <v>91.99080172223999</v>
+      </c>
+      <c r="Q53">
+        <v>93.75080172224</v>
+      </c>
+      <c r="R53">
+        <v>1.040816326530612</v>
+      </c>
+      <c r="S53">
+        <v>0.1247913103924858</v>
+      </c>
+      <c r="T53">
+        <v>0.963979757313463</v>
+      </c>
+      <c r="U53">
+        <v>0.0162</v>
+      </c>
+      <c r="V53">
+        <v>0.28</v>
+      </c>
+      <c r="W53">
+        <v>0.011664</v>
+      </c>
+      <c r="X53" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y53">
+        <v>15.89971289004236</v>
+      </c>
+      <c r="Z53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54">
+        <v>0.52</v>
+      </c>
+      <c r="B54">
+        <v>0.06693517132486763</v>
+      </c>
+      <c r="C54">
+        <v>581.7496379873363</v>
+      </c>
+      <c r="D54">
+        <v>1004.849317987336</v>
+      </c>
+      <c r="E54">
+        <v>538.71568</v>
+      </c>
+      <c r="F54">
+        <v>539.6996800000001</v>
+      </c>
+      <c r="G54">
+        <v>116.6</v>
+      </c>
+      <c r="H54">
+        <v>1036.9</v>
+      </c>
+      <c r="I54">
+        <v>0</v>
+      </c>
+      <c r="J54">
+        <v>138.1</v>
+      </c>
+      <c r="K54">
+        <v>1.76</v>
+      </c>
+      <c r="L54">
+        <v>136.34</v>
+      </c>
+      <c r="M54">
+        <v>8.743134816000001</v>
+      </c>
+      <c r="N54">
+        <v>127.596865184</v>
+      </c>
+      <c r="O54">
+        <v>35.72712225152</v>
+      </c>
+      <c r="P54">
+        <v>91.86974293247999</v>
+      </c>
+      <c r="Q54">
+        <v>93.62974293248</v>
+      </c>
+      <c r="R54">
+        <v>1.083333333333333</v>
+      </c>
+      <c r="S54">
+        <v>0.1268122735934742</v>
+      </c>
+      <c r="T54">
+        <v>0.9808482784983695</v>
+      </c>
+      <c r="U54">
+        <v>0.0162</v>
+      </c>
+      <c r="V54">
+        <v>0.28</v>
+      </c>
+      <c r="W54">
+        <v>0.011664</v>
+      </c>
+      <c r="X54" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y54">
+        <v>15.59394918061846</v>
+      </c>
+      <c r="Z54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55">
+        <v>0.53</v>
+      </c>
+      <c r="B55">
+        <v>0.06677396055741723</v>
+      </c>
+      <c r="C55">
+        <v>573.1199655064045</v>
+      </c>
+      <c r="D55">
+        <v>1006.598485506404</v>
+      </c>
+      <c r="E55">
+        <v>549.09452</v>
+      </c>
+      <c r="F55">
+        <v>550.07852</v>
+      </c>
+      <c r="G55">
+        <v>116.6</v>
+      </c>
+      <c r="H55">
+        <v>1036.9</v>
+      </c>
+      <c r="I55">
+        <v>0</v>
+      </c>
+      <c r="J55">
+        <v>138.1</v>
+      </c>
+      <c r="K55">
+        <v>1.76</v>
+      </c>
+      <c r="L55">
+        <v>136.34</v>
+      </c>
+      <c r="M55">
+        <v>8.911272024000001</v>
+      </c>
+      <c r="N55">
+        <v>127.428727976</v>
+      </c>
+      <c r="O55">
+        <v>35.68004383328</v>
+      </c>
+      <c r="P55">
+        <v>91.74868414272001</v>
+      </c>
+      <c r="Q55">
+        <v>93.50868414272001</v>
+      </c>
+      <c r="R55">
+        <v>1.127659574468085</v>
+      </c>
+      <c r="S55">
+        <v>0.1289192352285473</v>
+      </c>
+      <c r="T55">
+        <v>0.9984346090953999</v>
+      </c>
+      <c r="U55">
+        <v>0.0162</v>
+      </c>
+      <c r="V55">
+        <v>0.28</v>
+      </c>
+      <c r="W55">
+        <v>0.011664</v>
+      </c>
+      <c r="X55" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y55">
+        <v>15.29972372438038</v>
+      </c>
+      <c r="Z55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56">
+        <v>0.54</v>
+      </c>
+      <c r="B56">
+        <v>0.06661274978996683</v>
+      </c>
+      <c r="C56">
+        <v>564.4963932877607</v>
+      </c>
+      <c r="D56">
+        <v>1008.353753287761</v>
+      </c>
+      <c r="E56">
+        <v>559.47336</v>
+      </c>
+      <c r="F56">
+        <v>560.45736</v>
+      </c>
+      <c r="G56">
+        <v>116.6</v>
+      </c>
+      <c r="H56">
+        <v>1036.9</v>
+      </c>
+      <c r="I56">
+        <v>0</v>
+      </c>
+      <c r="J56">
+        <v>138.1</v>
+      </c>
+      <c r="K56">
+        <v>1.76</v>
+      </c>
+      <c r="L56">
+        <v>136.34</v>
+      </c>
+      <c r="M56">
+        <v>9.079409232</v>
+      </c>
+      <c r="N56">
+        <v>127.260590768</v>
+      </c>
+      <c r="O56">
+        <v>35.63296541504</v>
+      </c>
+      <c r="P56">
+        <v>91.62762535296</v>
+      </c>
+      <c r="Q56">
+        <v>93.38762535296</v>
+      </c>
+      <c r="R56">
+        <v>1.173913043478261</v>
+      </c>
+      <c r="S56">
+        <v>0.1311178038912322</v>
+      </c>
+      <c r="T56">
+        <v>1.016785562761866</v>
+      </c>
+      <c r="U56">
+        <v>0.0162</v>
+      </c>
+      <c r="V56">
+        <v>0.28</v>
+      </c>
+      <c r="W56">
+        <v>0.011664</v>
+      </c>
+      <c r="X56" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y56">
+        <v>15.01639550726223</v>
+      </c>
+      <c r="Z56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57">
+        <v>0.55</v>
+      </c>
+      <c r="B57">
+        <v>0.06645153902251641</v>
+      </c>
+      <c r="C57">
+        <v>555.87895329936</v>
+      </c>
+      <c r="D57">
+        <v>1010.11515329936</v>
+      </c>
+      <c r="E57">
+        <v>569.8522</v>
+      </c>
+      <c r="F57">
+        <v>570.8362000000001</v>
+      </c>
+      <c r="G57">
+        <v>116.6</v>
+      </c>
+      <c r="H57">
+        <v>1036.9</v>
+      </c>
+      <c r="I57">
+        <v>0</v>
+      </c>
+      <c r="J57">
+        <v>138.1</v>
+      </c>
+      <c r="K57">
+        <v>1.76</v>
+      </c>
+      <c r="L57">
+        <v>136.34</v>
+      </c>
+      <c r="M57">
+        <v>9.247546440000001</v>
+      </c>
+      <c r="N57">
+        <v>127.09245356</v>
+      </c>
+      <c r="O57">
+        <v>35.5858869968</v>
+      </c>
+      <c r="P57">
+        <v>91.5065665632</v>
+      </c>
+      <c r="Q57">
+        <v>93.2665665632</v>
+      </c>
+      <c r="R57">
+        <v>1.222222222222223</v>
+      </c>
+      <c r="S57">
+        <v>0.1334140867167032</v>
+      </c>
+      <c r="T57">
+        <v>1.035952114369065</v>
+      </c>
+      <c r="U57">
+        <v>0.0162</v>
+      </c>
+      <c r="V57">
+        <v>0.28</v>
+      </c>
+      <c r="W57">
+        <v>0.011664</v>
+      </c>
+      <c r="X57" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y57">
+        <v>14.74337013440291</v>
+      </c>
+      <c r="Z57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="B58">
+        <v>0.06629032825506601</v>
+      </c>
+      <c r="C58">
+        <v>547.2676777329132</v>
+      </c>
+      <c r="D58">
+        <v>1011.882717732913</v>
+      </c>
+      <c r="E58">
+        <v>580.23104</v>
+      </c>
+      <c r="F58">
+        <v>581.21504</v>
+      </c>
+      <c r="G58">
+        <v>116.6</v>
+      </c>
+      <c r="H58">
+        <v>1036.9</v>
+      </c>
+      <c r="I58">
+        <v>0</v>
+      </c>
+      <c r="J58">
+        <v>138.1</v>
+      </c>
+      <c r="K58">
+        <v>1.76</v>
+      </c>
+      <c r="L58">
+        <v>136.34</v>
+      </c>
+      <c r="M58">
+        <v>9.415683648</v>
+      </c>
+      <c r="N58">
+        <v>126.924316352</v>
+      </c>
+      <c r="O58">
+        <v>35.53880857856001</v>
+      </c>
+      <c r="P58">
+        <v>91.38550777344</v>
+      </c>
+      <c r="Q58">
+        <v>93.14550777344</v>
+      </c>
+      <c r="R58">
+        <v>1.272727272727273</v>
+      </c>
+      <c r="S58">
+        <v>0.1358147460342409</v>
+      </c>
+      <c r="T58">
+        <v>1.055989872867499</v>
+      </c>
+      <c r="U58">
+        <v>0.0162</v>
+      </c>
+      <c r="V58">
+        <v>0.28</v>
+      </c>
+      <c r="W58">
+        <v>0.011664</v>
+      </c>
+      <c r="X58" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y58">
+        <v>14.48009566771715</v>
+      </c>
+      <c r="Z58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59">
+        <v>0.5700000000000001</v>
+      </c>
+      <c r="B59">
+        <v>0.06612911748761559</v>
+      </c>
+      <c r="C59">
+        <v>538.6625990058526</v>
+      </c>
+      <c r="D59">
+        <v>1013.656479005853</v>
+      </c>
+      <c r="E59">
+        <v>590.6098800000001</v>
+      </c>
+      <c r="F59">
+        <v>591.5938800000001</v>
+      </c>
+      <c r="G59">
+        <v>116.6</v>
+      </c>
+      <c r="H59">
+        <v>1036.9</v>
+      </c>
+      <c r="I59">
+        <v>0</v>
+      </c>
+      <c r="J59">
+        <v>138.1</v>
+      </c>
+      <c r="K59">
+        <v>1.76</v>
+      </c>
+      <c r="L59">
+        <v>136.34</v>
+      </c>
+      <c r="M59">
+        <v>9.583820856000001</v>
+      </c>
+      <c r="N59">
+        <v>126.756179144</v>
+      </c>
+      <c r="O59">
+        <v>35.49173016032</v>
+      </c>
+      <c r="P59">
+        <v>91.26444898368</v>
+      </c>
+      <c r="Q59">
+        <v>93.02444898368</v>
+      </c>
+      <c r="R59">
+        <v>1.325581395348838</v>
+      </c>
+      <c r="S59">
+        <v>0.1383270639246874</v>
+      </c>
+      <c r="T59">
+        <v>1.076959620133302</v>
+      </c>
+      <c r="U59">
+        <v>0.0162</v>
+      </c>
+      <c r="V59">
+        <v>0.28</v>
+      </c>
+      <c r="W59">
+        <v>0.011664</v>
+      </c>
+      <c r="X59" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y59">
+        <v>14.22605890161685</v>
+      </c>
+      <c r="Z59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60">
+        <v>0.58</v>
+      </c>
+      <c r="B60">
+        <v>0.06596790672016518</v>
+      </c>
+      <c r="C60">
+        <v>530.0637497633109</v>
+      </c>
+      <c r="D60">
+        <v>1015.436469763311</v>
+      </c>
+      <c r="E60">
+        <v>600.9887199999999</v>
+      </c>
+      <c r="F60">
+        <v>601.97272</v>
+      </c>
+      <c r="G60">
+        <v>116.6</v>
+      </c>
+      <c r="H60">
+        <v>1036.9</v>
+      </c>
+      <c r="I60">
+        <v>0</v>
+      </c>
+      <c r="J60">
+        <v>138.1</v>
+      </c>
+      <c r="K60">
+        <v>1.76</v>
+      </c>
+      <c r="L60">
+        <v>136.34</v>
+      </c>
+      <c r="M60">
+        <v>9.751958063999998</v>
+      </c>
+      <c r="N60">
+        <v>126.588041936</v>
+      </c>
+      <c r="O60">
+        <v>35.44465174208</v>
+      </c>
+      <c r="P60">
+        <v>91.14339019392</v>
+      </c>
+      <c r="Q60">
+        <v>92.90339019392</v>
+      </c>
+      <c r="R60">
+        <v>1.380952380952381</v>
+      </c>
+      <c r="S60">
+        <v>0.1409590160003933</v>
+      </c>
+      <c r="T60">
+        <v>1.098927926792716</v>
+      </c>
+      <c r="U60">
+        <v>0.0162</v>
+      </c>
+      <c r="V60">
+        <v>0.28</v>
+      </c>
+      <c r="W60">
+        <v>0.011664</v>
+      </c>
+      <c r="X60" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y60">
+        <v>13.98078202400277</v>
+      </c>
+      <c r="Z60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61">
+        <v>0.59</v>
+      </c>
+      <c r="B61">
+        <v>0.06580669595271477</v>
+      </c>
+      <c r="C61">
+        <v>521.4711628801255</v>
+      </c>
+      <c r="D61">
+        <v>1017.222722880126</v>
+      </c>
+      <c r="E61">
+        <v>611.3675599999999</v>
+      </c>
+      <c r="F61">
+        <v>612.3515599999999</v>
+      </c>
+      <c r="G61">
+        <v>116.6</v>
+      </c>
+      <c r="H61">
+        <v>1036.9</v>
+      </c>
+      <c r="I61">
+        <v>0</v>
+      </c>
+      <c r="J61">
+        <v>138.1</v>
+      </c>
+      <c r="K61">
+        <v>1.76</v>
+      </c>
+      <c r="L61">
+        <v>136.34</v>
+      </c>
+      <c r="M61">
+        <v>9.920095271999999</v>
+      </c>
+      <c r="N61">
+        <v>126.419904728</v>
+      </c>
+      <c r="O61">
+        <v>35.39757332384001</v>
+      </c>
+      <c r="P61">
+        <v>91.02233140416</v>
+      </c>
+      <c r="Q61">
+        <v>92.78233140416</v>
+      </c>
+      <c r="R61">
+        <v>1.439024390243902</v>
+      </c>
+      <c r="S61">
+        <v>0.1437193559822312</v>
+      </c>
+      <c r="T61">
+        <v>1.121967858167222</v>
+      </c>
+      <c r="U61">
+        <v>0.0162</v>
+      </c>
+      <c r="V61">
+        <v>0.28</v>
+      </c>
+      <c r="W61">
+        <v>0.011664</v>
+      </c>
+      <c r="X61" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y61">
+        <v>13.74381961681628</v>
+      </c>
+      <c r="Z61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62">
+        <v>0.6</v>
+      </c>
+      <c r="B62">
+        <v>0.06633668518526438</v>
+      </c>
+      <c r="C62">
+        <v>505.2434127588432</v>
+      </c>
+      <c r="D62">
+        <v>1011.373812758843</v>
+      </c>
+      <c r="E62">
+        <v>621.7464</v>
+      </c>
+      <c r="F62">
+        <v>622.7304</v>
+      </c>
+      <c r="G62">
+        <v>116.6</v>
+      </c>
+      <c r="H62">
+        <v>1036.9</v>
+      </c>
+      <c r="I62">
+        <v>0</v>
+      </c>
+      <c r="J62">
+        <v>138.1</v>
+      </c>
+      <c r="K62">
+        <v>1.76</v>
+      </c>
+      <c r="L62">
+        <v>136.34</v>
+      </c>
+      <c r="M62">
+        <v>11.08460112</v>
+      </c>
+      <c r="N62">
+        <v>125.25539888</v>
+      </c>
+      <c r="O62">
+        <v>35.0715116864</v>
+      </c>
+      <c r="P62">
+        <v>90.1838871936</v>
+      </c>
+      <c r="Q62">
+        <v>91.94388719360001</v>
+      </c>
+      <c r="R62">
+        <v>1.5</v>
+      </c>
+      <c r="S62">
+        <v>0.1466177129631609</v>
+      </c>
+      <c r="T62">
+        <v>1.146159786110454</v>
+      </c>
+      <c r="U62">
+        <v>0.0178</v>
+      </c>
+      <c r="V62">
+        <v>0.28</v>
+      </c>
+      <c r="W62">
+        <v>0.012816</v>
+      </c>
+      <c r="X62" t="inlineStr">
+        <is>
+          <t>Aa2/AA</t>
+        </is>
+      </c>
+      <c r="Y62">
+        <v>12.29994643235299</v>
+      </c>
+      <c r="Z62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63">
+        <v>0.61</v>
+      </c>
+      <c r="B63">
+        <v>0.06618699441781396</v>
+      </c>
+      <c r="C63">
+        <v>496.50971872388</v>
+      </c>
+      <c r="D63">
+        <v>1013.01895872388</v>
+      </c>
+      <c r="E63">
+        <v>632.12524</v>
+      </c>
+      <c r="F63">
+        <v>633.10924</v>
+      </c>
+      <c r="G63">
+        <v>116.6</v>
+      </c>
+      <c r="H63">
+        <v>1036.9</v>
+      </c>
+      <c r="I63">
+        <v>0</v>
+      </c>
+      <c r="J63">
+        <v>138.1</v>
+      </c>
+      <c r="K63">
+        <v>1.76</v>
+      </c>
+      <c r="L63">
+        <v>136.34</v>
+      </c>
+      <c r="M63">
+        <v>11.269344472</v>
+      </c>
+      <c r="N63">
+        <v>125.070655528</v>
+      </c>
+      <c r="O63">
+        <v>35.01978354784001</v>
+      </c>
+      <c r="P63">
+        <v>90.05087198016</v>
+      </c>
+      <c r="Q63">
+        <v>91.81087198016</v>
+      </c>
+      <c r="R63">
+        <v>1.564102564102564</v>
+      </c>
+      <c r="S63">
+        <v>0.1496647036354204</v>
+      </c>
+      <c r="T63">
+        <v>1.171592325743083</v>
+      </c>
+      <c r="U63">
+        <v>0.0178</v>
+      </c>
+      <c r="V63">
+        <v>0.28</v>
+      </c>
+      <c r="W63">
+        <v>0.012816</v>
+      </c>
+      <c r="X63" t="inlineStr">
+        <is>
+          <t>Aa2/AA</t>
+        </is>
+      </c>
+      <c r="Y63">
+        <v>12.09830796624885</v>
+      </c>
+      <c r="Z63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64">
+        <v>0.62</v>
+      </c>
+      <c r="B64">
+        <v>0.06603730365036355</v>
+      </c>
+      <c r="C64">
+        <v>487.7813855454227</v>
+      </c>
+      <c r="D64">
+        <v>1014.669465545423</v>
+      </c>
+      <c r="E64">
+        <v>642.5040799999999</v>
+      </c>
+      <c r="F64">
+        <v>643.48808</v>
+      </c>
+      <c r="G64">
+        <v>116.6</v>
+      </c>
+      <c r="H64">
+        <v>1036.9</v>
+      </c>
+      <c r="I64">
+        <v>0</v>
+      </c>
+      <c r="J64">
+        <v>138.1</v>
+      </c>
+      <c r="K64">
+        <v>1.76</v>
+      </c>
+      <c r="L64">
+        <v>136.34</v>
+      </c>
+      <c r="M64">
+        <v>11.454087824</v>
+      </c>
+      <c r="N64">
+        <v>124.885912176</v>
+      </c>
+      <c r="O64">
+        <v>34.96805540928001</v>
+      </c>
+      <c r="P64">
+        <v>89.91785676672001</v>
+      </c>
+      <c r="Q64">
+        <v>91.67785676672001</v>
+      </c>
+      <c r="R64">
+        <v>1.631578947368421</v>
+      </c>
+      <c r="S64">
+        <v>0.1528720622377988</v>
+      </c>
+      <c r="T64">
+        <v>1.198363420093218</v>
+      </c>
+      <c r="U64">
+        <v>0.0178</v>
+      </c>
+      <c r="V64">
+        <v>0.28</v>
+      </c>
+      <c r="W64">
+        <v>0.012816</v>
+      </c>
+      <c r="X64" t="inlineStr">
+        <is>
+          <t>Aa2/AA</t>
+        </is>
+      </c>
+      <c r="Y64">
+        <v>11.90317396679322</v>
+      </c>
+      <c r="Z64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65">
+        <v>0.63</v>
+      </c>
+      <c r="B65">
+        <v>0.06588761288291314</v>
+      </c>
+      <c r="C65">
+        <v>479.0584394694851</v>
+      </c>
+      <c r="D65">
+        <v>1016.325359469485</v>
+      </c>
+      <c r="E65">
+        <v>652.88292</v>
+      </c>
+      <c r="F65">
+        <v>653.8669200000001</v>
+      </c>
+      <c r="G65">
+        <v>116.6</v>
+      </c>
+      <c r="H65">
+        <v>1036.9</v>
+      </c>
+      <c r="I65">
+        <v>0</v>
+      </c>
+      <c r="J65">
+        <v>138.1</v>
+      </c>
+      <c r="K65">
+        <v>1.76</v>
+      </c>
+      <c r="L65">
+        <v>136.34</v>
+      </c>
+      <c r="M65">
+        <v>11.638831176</v>
+      </c>
+      <c r="N65">
+        <v>124.701168824</v>
+      </c>
+      <c r="O65">
+        <v>34.91632727072</v>
+      </c>
+      <c r="P65">
+        <v>89.78484155328</v>
+      </c>
+      <c r="Q65">
+        <v>91.54484155328001</v>
+      </c>
+      <c r="R65">
+        <v>1.702702702702703</v>
+      </c>
+      <c r="S65">
+        <v>0.1562527915754409</v>
+      </c>
+      <c r="T65">
+        <v>1.226581600624441</v>
+      </c>
+      <c r="U65">
+        <v>0.0178</v>
+      </c>
+      <c r="V65">
+        <v>0.28</v>
+      </c>
+      <c r="W65">
+        <v>0.012816</v>
+      </c>
+      <c r="X65" t="inlineStr">
+        <is>
+          <t>Aa2/AA</t>
+        </is>
+      </c>
+      <c r="Y65">
+        <v>11.71423469747904</v>
+      </c>
+      <c r="Z65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66">
+        <v>0.64</v>
+      </c>
+      <c r="B66">
+        <v>0.06573792211546273</v>
+      </c>
+      <c r="C66">
+        <v>470.3409069136915</v>
+      </c>
+      <c r="D66">
+        <v>1017.986666913691</v>
+      </c>
+      <c r="E66">
+        <v>663.26176</v>
+      </c>
+      <c r="F66">
+        <v>664.24576</v>
+      </c>
+      <c r="G66">
+        <v>116.6</v>
+      </c>
+      <c r="H66">
+        <v>1036.9</v>
+      </c>
+      <c r="I66">
+        <v>0</v>
+      </c>
+      <c r="J66">
+        <v>138.1</v>
+      </c>
+      <c r="K66">
+        <v>1.76</v>
+      </c>
+      <c r="L66">
+        <v>136.34</v>
+      </c>
+      <c r="M66">
+        <v>11.823574528</v>
+      </c>
+      <c r="N66">
+        <v>124.516425472</v>
+      </c>
+      <c r="O66">
+        <v>34.86459913216001</v>
+      </c>
+      <c r="P66">
+        <v>89.65182633984</v>
+      </c>
+      <c r="Q66">
+        <v>91.41182633984</v>
+      </c>
+      <c r="R66">
+        <v>1.777777777777778</v>
+      </c>
+      <c r="S66">
+        <v>0.1598213392096187</v>
+      </c>
+      <c r="T66">
+        <v>1.256367457851844</v>
+      </c>
+      <c r="U66">
+        <v>0.0178</v>
+      </c>
+      <c r="V66">
+        <v>0.28</v>
+      </c>
+      <c r="W66">
+        <v>0.012816</v>
+      </c>
+      <c r="X66" t="inlineStr">
+        <is>
+          <t>Aa2/AA</t>
+        </is>
+      </c>
+      <c r="Y66">
+        <v>11.53119978033093</v>
+      </c>
+      <c r="Z66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67">
+        <v>0.65</v>
+      </c>
+      <c r="B67">
+        <v>0.06558823134801232</v>
+      </c>
+      <c r="C67">
+        <v>461.6288144686779</v>
+      </c>
+      <c r="D67">
+        <v>1019.653414468678</v>
+      </c>
+      <c r="E67">
+        <v>673.6405999999999</v>
+      </c>
+      <c r="F67">
+        <v>674.6246</v>
+      </c>
+      <c r="G67">
+        <v>116.6</v>
+      </c>
+      <c r="H67">
+        <v>1036.9</v>
+      </c>
+      <c r="I67">
+        <v>0</v>
+      </c>
+      <c r="J67">
+        <v>138.1</v>
+      </c>
+      <c r="K67">
+        <v>1.76</v>
+      </c>
+      <c r="L67">
+        <v>136.34</v>
+      </c>
+      <c r="M67">
+        <v>12.00831788</v>
+      </c>
+      <c r="N67">
+        <v>124.33168212</v>
+      </c>
+      <c r="O67">
+        <v>34.81287099360001</v>
+      </c>
+      <c r="P67">
+        <v>89.51881112640001</v>
+      </c>
+      <c r="Q67">
+        <v>91.27881112640002</v>
+      </c>
+      <c r="R67">
+        <v>1.857142857142857</v>
+      </c>
+      <c r="S67">
+        <v>0.1635938038514638</v>
+      </c>
+      <c r="T67">
+        <v>1.28785536406367</v>
+      </c>
+      <c r="U67">
+        <v>0.0178</v>
+      </c>
+      <c r="V67">
+        <v>0.28</v>
+      </c>
+      <c r="W67">
+        <v>0.012816</v>
+      </c>
+      <c r="X67" t="inlineStr">
+        <is>
+          <t>Aa2/AA</t>
+        </is>
+      </c>
+      <c r="Y67">
+        <v>11.35379670678738</v>
+      </c>
+      <c r="Z67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68">
+        <v>0.66</v>
+      </c>
+      <c r="B68">
+        <v>0.06543854058056191</v>
+      </c>
+      <c r="C68">
+        <v>452.9221888995158</v>
+      </c>
+      <c r="D68">
+        <v>1021.325628899516</v>
+      </c>
+      <c r="E68">
+        <v>684.01944</v>
+      </c>
+      <c r="F68">
+        <v>685.0034400000001</v>
+      </c>
+      <c r="G68">
+        <v>116.6</v>
+      </c>
+      <c r="H68">
+        <v>1036.9</v>
+      </c>
+      <c r="I68">
+        <v>0</v>
+      </c>
+      <c r="J68">
+        <v>138.1</v>
+      </c>
+      <c r="K68">
+        <v>1.76</v>
+      </c>
+      <c r="L68">
+        <v>136.34</v>
+      </c>
+      <c r="M68">
+        <v>12.193061232</v>
+      </c>
+      <c r="N68">
+        <v>124.146938768</v>
+      </c>
+      <c r="O68">
+        <v>34.76114285504001</v>
+      </c>
+      <c r="P68">
+        <v>89.38579591295999</v>
+      </c>
+      <c r="Q68">
+        <v>91.14579591296</v>
+      </c>
+      <c r="R68">
+        <v>1.941176470588236</v>
+      </c>
+      <c r="S68">
+        <v>0.1675881781781233</v>
+      </c>
+      <c r="T68">
+        <v>1.321195500052662</v>
+      </c>
+      <c r="U68">
+        <v>0.0178</v>
+      </c>
+      <c r="V68">
+        <v>0.28</v>
+      </c>
+      <c r="W68">
+        <v>0.012816</v>
+      </c>
+      <c r="X68" t="inlineStr">
+        <is>
+          <t>Aa2/AA</t>
+        </is>
+      </c>
+      <c r="Y68">
+        <v>11.18176948395727</v>
+      </c>
+      <c r="Z68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69">
+        <v>0.67</v>
+      </c>
+      <c r="B69">
+        <v>0.0652888498131115</v>
+      </c>
+      <c r="C69">
+        <v>444.2210571471405</v>
+      </c>
+      <c r="D69">
+        <v>1023.003337147141</v>
+      </c>
+      <c r="E69">
+        <v>694.39828</v>
+      </c>
+      <c r="F69">
+        <v>695.38228</v>
+      </c>
+      <c r="G69">
+        <v>116.6</v>
+      </c>
+      <c r="H69">
+        <v>1036.9</v>
+      </c>
+      <c r="I69">
+        <v>0</v>
+      </c>
+      <c r="J69">
+        <v>138.1</v>
+      </c>
+      <c r="K69">
+        <v>1.76</v>
+      </c>
+      <c r="L69">
+        <v>136.34</v>
+      </c>
+      <c r="M69">
+        <v>12.377804584</v>
+      </c>
+      <c r="N69">
+        <v>123.962195416</v>
+      </c>
+      <c r="O69">
+        <v>34.70941471648</v>
+      </c>
+      <c r="P69">
+        <v>89.25278069952</v>
+      </c>
+      <c r="Q69">
+        <v>91.01278069952001</v>
+      </c>
+      <c r="R69">
+        <v>2.030303030303031</v>
+      </c>
+      <c r="S69">
+        <v>0.1718246357973076</v>
+      </c>
+      <c r="T69">
+        <v>1.356556250344017</v>
+      </c>
+      <c r="U69">
+        <v>0.0178</v>
+      </c>
+      <c r="V69">
+        <v>0.28</v>
+      </c>
+      <c r="W69">
+        <v>0.012816</v>
+      </c>
+      <c r="X69" t="inlineStr">
+        <is>
+          <t>Aa2/AA</t>
+        </is>
+      </c>
+      <c r="Y69">
+        <v>11.01487740210716</v>
+      </c>
+      <c r="Z69">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70">
+        <v>0.68</v>
+      </c>
+      <c r="B70">
+        <v>0.06513915904566109</v>
+      </c>
+      <c r="C70">
+        <v>435.5254463298</v>
+      </c>
+      <c r="D70">
+        <v>1024.6865663298</v>
+      </c>
+      <c r="E70">
+        <v>704.77712</v>
+      </c>
+      <c r="F70">
+        <v>705.76112</v>
+      </c>
+      <c r="G70">
+        <v>116.6</v>
+      </c>
+      <c r="H70">
+        <v>1036.9</v>
+      </c>
+      <c r="I70">
+        <v>0</v>
+      </c>
+      <c r="J70">
+        <v>138.1</v>
+      </c>
+      <c r="K70">
+        <v>1.76</v>
+      </c>
+      <c r="L70">
+        <v>136.34</v>
+      </c>
+      <c r="M70">
+        <v>12.562547936</v>
+      </c>
+      <c r="N70">
+        <v>123.777452064</v>
+      </c>
+      <c r="O70">
+        <v>34.65768657792</v>
+      </c>
+      <c r="P70">
+        <v>89.11976548608</v>
+      </c>
+      <c r="Q70">
+        <v>90.87976548608</v>
+      </c>
+      <c r="R70">
+        <v>2.125</v>
+      </c>
+      <c r="S70">
+        <v>0.176325872017691</v>
+      </c>
+      <c r="T70">
+        <v>1.394127047528582</v>
+      </c>
+      <c r="U70">
+        <v>0.0178</v>
+      </c>
+      <c r="V70">
+        <v>0.28</v>
+      </c>
+      <c r="W70">
+        <v>0.012816</v>
+      </c>
+      <c r="X70" t="inlineStr">
+        <is>
+          <t>Aa2/AA</t>
+        </is>
+      </c>
+      <c r="Y70">
+        <v>10.8528939108997</v>
+      </c>
+      <c r="Z70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71">
+        <v>0.6900000000000001</v>
+      </c>
+      <c r="B71">
+        <v>0.06498946827821069</v>
+      </c>
+      <c r="C71">
+        <v>426.8353837445158</v>
+      </c>
+      <c r="D71">
+        <v>1026.375343744516</v>
+      </c>
+      <c r="E71">
+        <v>715.1559600000001</v>
+      </c>
+      <c r="F71">
+        <v>716.1399600000001</v>
+      </c>
+      <c r="G71">
+        <v>116.6</v>
+      </c>
+      <c r="H71">
+        <v>1036.9</v>
+      </c>
+      <c r="I71">
+        <v>0</v>
+      </c>
+      <c r="J71">
+        <v>138.1</v>
+      </c>
+      <c r="K71">
+        <v>1.76</v>
+      </c>
+      <c r="L71">
+        <v>136.34</v>
+      </c>
+      <c r="M71">
+        <v>12.747291288</v>
+      </c>
+      <c r="N71">
+        <v>123.592708712</v>
+      </c>
+      <c r="O71">
+        <v>34.60595843936</v>
+      </c>
+      <c r="P71">
+        <v>88.98675027263999</v>
+      </c>
+      <c r="Q71">
+        <v>90.74675027264</v>
+      </c>
+      <c r="R71">
+        <v>2.225806451612904</v>
+      </c>
+      <c r="S71">
+        <v>0.1811175105748732</v>
+      </c>
+      <c r="T71">
+        <v>1.43412176711215</v>
+      </c>
+      <c r="U71">
+        <v>0.0178</v>
+      </c>
+      <c r="V71">
+        <v>0.28</v>
+      </c>
+      <c r="W71">
+        <v>0.012816</v>
+      </c>
+      <c r="X71" t="inlineStr">
+        <is>
+          <t>Aa2/AA</t>
+        </is>
+      </c>
+      <c r="Y71">
+        <v>10.69560559335043</v>
+      </c>
+      <c r="Z71">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72">
+        <v>0.7000000000000001</v>
+      </c>
+      <c r="B72">
+        <v>0.06594857751076028</v>
+      </c>
+      <c r="C72">
+        <v>405.7315108723039</v>
+      </c>
+      <c r="D72">
+        <v>1015.650310872304</v>
+      </c>
+      <c r="E72">
+        <v>725.5348</v>
+      </c>
+      <c r="F72">
+        <v>726.5188000000001</v>
+      </c>
+      <c r="G72">
+        <v>116.6</v>
+      </c>
+      <c r="H72">
+        <v>1036.9</v>
+      </c>
+      <c r="I72">
+        <v>0</v>
+      </c>
+      <c r="J72">
+        <v>138.1</v>
+      </c>
+      <c r="K72">
+        <v>1.76</v>
+      </c>
+      <c r="L72">
+        <v>136.34</v>
+      </c>
+      <c r="M72">
+        <v>14.530376</v>
+      </c>
+      <c r="N72">
+        <v>121.809624</v>
+      </c>
+      <c r="O72">
+        <v>34.10669472</v>
+      </c>
+      <c r="P72">
+        <v>87.70292928000001</v>
+      </c>
+      <c r="Q72">
+        <v>89.46292928000001</v>
+      </c>
+      <c r="R72">
+        <v>2.333333333333334</v>
+      </c>
+      <c r="S72">
+        <v>0.1862285917025343</v>
+      </c>
+      <c r="T72">
+        <v>1.476782801334624</v>
+      </c>
+      <c r="U72">
+        <v>0.02</v>
+      </c>
+      <c r="V72">
+        <v>0.28</v>
+      </c>
+      <c r="W72">
+        <v>0.0144</v>
+      </c>
+      <c r="X72" t="inlineStr">
+        <is>
+          <t>A1/A+</t>
+        </is>
+      </c>
+      <c r="Y72">
+        <v>9.383101992680713</v>
+      </c>
+      <c r="Z72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73">
+        <v>0.71</v>
+      </c>
+      <c r="B73">
+        <v>0.06581472674330988</v>
+      </c>
+      <c r="C73">
+        <v>396.835951117314</v>
+      </c>
+      <c r="D73">
+        <v>1017.133591117314</v>
+      </c>
+      <c r="E73">
+        <v>735.91364</v>
+      </c>
+      <c r="F73">
+        <v>736.89764</v>
+      </c>
+      <c r="G73">
+        <v>116.6</v>
+      </c>
+      <c r="H73">
+        <v>1036.9</v>
+      </c>
+      <c r="I73">
+        <v>0</v>
+      </c>
+      <c r="J73">
+        <v>138.1</v>
+      </c>
+      <c r="K73">
+        <v>1.76</v>
+      </c>
+      <c r="L73">
+        <v>136.34</v>
+      </c>
+      <c r="M73">
+        <v>14.7379528</v>
+      </c>
+      <c r="N73">
+        <v>121.6020472</v>
+      </c>
+      <c r="O73">
+        <v>34.048573216</v>
+      </c>
+      <c r="P73">
+        <v>87.55347398399999</v>
+      </c>
+      <c r="Q73">
+        <v>89.313473984</v>
+      </c>
+      <c r="R73">
+        <v>2.448275862068965</v>
+      </c>
+      <c r="S73">
+        <v>0.1916921611838271</v>
+      </c>
+      <c r="T73">
+        <v>1.522385975848302</v>
+      </c>
+      <c r="U73">
+        <v>0.02</v>
+      </c>
+      <c r="V73">
+        <v>0.28</v>
+      </c>
+      <c r="W73">
+        <v>0.0144</v>
+      </c>
+      <c r="X73" t="inlineStr">
+        <is>
+          <t>A1/A+</t>
+        </is>
+      </c>
+      <c r="Y73">
+        <v>9.250945626586619</v>
+      </c>
+      <c r="Z73">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74">
+        <v>0.72</v>
+      </c>
+      <c r="B74">
+        <v>0.06568087597585946</v>
+      </c>
+      <c r="C74">
+        <v>387.9447301353641</v>
+      </c>
+      <c r="D74">
+        <v>1018.621210135364</v>
+      </c>
+      <c r="E74">
+        <v>746.29248</v>
+      </c>
+      <c r="F74">
+        <v>747.27648</v>
+      </c>
+      <c r="G74">
+        <v>116.6</v>
+      </c>
+      <c r="H74">
+        <v>1036.9</v>
+      </c>
+      <c r="I74">
+        <v>0</v>
+      </c>
+      <c r="J74">
+        <v>138.1</v>
+      </c>
+      <c r="K74">
+        <v>1.76</v>
+      </c>
+      <c r="L74">
+        <v>136.34</v>
+      </c>
+      <c r="M74">
+        <v>14.9455296</v>
+      </c>
+      <c r="N74">
+        <v>121.3944704</v>
+      </c>
+      <c r="O74">
+        <v>33.990451712</v>
+      </c>
+      <c r="P74">
+        <v>87.40401868800001</v>
+      </c>
+      <c r="Q74">
+        <v>89.16401868800001</v>
+      </c>
+      <c r="R74">
+        <v>2.571428571428571</v>
+      </c>
+      <c r="S74">
+        <v>0.1975459856280695</v>
+      </c>
+      <c r="T74">
+        <v>1.571246519970101</v>
+      </c>
+      <c r="U74">
+        <v>0.02</v>
+      </c>
+      <c r="V74">
+        <v>0.28</v>
+      </c>
+      <c r="W74">
+        <v>0.0144</v>
+      </c>
+      <c r="X74" t="inlineStr">
+        <is>
+          <t>A1/A+</t>
+        </is>
+      </c>
+      <c r="Y74">
+        <v>9.122460270661806</v>
+      </c>
+      <c r="Z74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75">
+        <v>0.73</v>
+      </c>
+      <c r="B75">
+        <v>0.06554702520840905</v>
+      </c>
+      <c r="C75">
+        <v>379.057866991487</v>
+      </c>
+      <c r="D75">
+        <v>1020.113186991487</v>
+      </c>
+      <c r="E75">
+        <v>756.6713199999999</v>
+      </c>
+      <c r="F75">
+        <v>757.65532</v>
+      </c>
+      <c r="G75">
+        <v>116.6</v>
+      </c>
+      <c r="H75">
+        <v>1036.9</v>
+      </c>
+      <c r="I75">
+        <v>0</v>
+      </c>
+      <c r="J75">
+        <v>138.1</v>
+      </c>
+      <c r="K75">
+        <v>1.76</v>
+      </c>
+      <c r="L75">
+        <v>136.34</v>
+      </c>
+      <c r="M75">
+        <v>15.1531064</v>
+      </c>
+      <c r="N75">
+        <v>121.1868936</v>
+      </c>
+      <c r="O75">
+        <v>33.932330208</v>
+      </c>
+      <c r="P75">
+        <v>87.25456339199999</v>
+      </c>
+      <c r="Q75">
+        <v>89.014563392</v>
+      </c>
+      <c r="R75">
+        <v>2.703703703703703</v>
+      </c>
+      <c r="S75">
+        <v>0.2038334266978113</v>
+      </c>
+      <c r="T75">
+        <v>1.623726363656477</v>
+      </c>
+      <c r="U75">
+        <v>0.02</v>
+      </c>
+      <c r="V75">
+        <v>0.28</v>
+      </c>
+      <c r="W75">
+        <v>0.0144</v>
+      </c>
+      <c r="X75" t="inlineStr">
+        <is>
+          <t>A1/A+</t>
+        </is>
+      </c>
+      <c r="Y75">
+        <v>8.997495061474659</v>
+      </c>
+      <c r="Z75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76">
+        <v>0.74</v>
+      </c>
+      <c r="B76">
+        <v>0.06541317444095865</v>
+      </c>
+      <c r="C76">
+        <v>370.1753808625775</v>
+      </c>
+      <c r="D76">
+        <v>1021.609540862578</v>
+      </c>
+      <c r="E76">
+        <v>767.05016</v>
+      </c>
+      <c r="F76">
+        <v>768.03416</v>
+      </c>
+      <c r="G76">
+        <v>116.6</v>
+      </c>
+      <c r="H76">
+        <v>1036.9</v>
+      </c>
+      <c r="I76">
+        <v>0</v>
+      </c>
+      <c r="J76">
+        <v>138.1</v>
+      </c>
+      <c r="K76">
+        <v>1.76</v>
+      </c>
+      <c r="L76">
+        <v>136.34</v>
+      </c>
+      <c r="M76">
+        <v>15.3606832</v>
+      </c>
+      <c r="N76">
+        <v>120.9793168</v>
+      </c>
+      <c r="O76">
+        <v>33.874208704</v>
+      </c>
+      <c r="P76">
+        <v>87.10510809600001</v>
+      </c>
+      <c r="Q76">
+        <v>88.86510809600001</v>
+      </c>
+      <c r="R76">
+        <v>2.846153846153846</v>
+      </c>
+      <c r="S76">
+        <v>0.2106045170806101</v>
+      </c>
+      <c r="T76">
+        <v>1.680243118395651</v>
+      </c>
+      <c r="U76">
+        <v>0.02</v>
+      </c>
+      <c r="V76">
+        <v>0.28</v>
+      </c>
+      <c r="W76">
+        <v>0.0144</v>
+      </c>
+      <c r="X76" t="inlineStr">
+        <is>
+          <t>A1/A+</t>
+        </is>
+      </c>
+      <c r="Y76">
+        <v>8.875907290373648</v>
+      </c>
+      <c r="Z76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77">
+        <v>0.75</v>
+      </c>
+      <c r="B77">
+        <v>0.06527932367350824</v>
+      </c>
+      <c r="C77">
+        <v>361.2972910382152</v>
+      </c>
+      <c r="D77">
+        <v>1023.110291038215</v>
+      </c>
+      <c r="E77">
+        <v>777.429</v>
+      </c>
+      <c r="F77">
+        <v>778.413</v>
+      </c>
+      <c r="G77">
+        <v>116.6</v>
+      </c>
+      <c r="H77">
+        <v>1036.9</v>
+      </c>
+      <c r="I77">
+        <v>0</v>
+      </c>
+      <c r="J77">
+        <v>138.1</v>
+      </c>
+      <c r="K77">
+        <v>1.76</v>
+      </c>
+      <c r="L77">
+        <v>136.34</v>
+      </c>
+      <c r="M77">
+        <v>15.56826</v>
+      </c>
+      <c r="N77">
+        <v>120.77174</v>
+      </c>
+      <c r="O77">
+        <v>33.81608720000001</v>
+      </c>
+      <c r="P77">
+        <v>86.9556528</v>
+      </c>
+      <c r="Q77">
+        <v>88.7156528</v>
+      </c>
+      <c r="R77">
+        <v>3</v>
+      </c>
+      <c r="S77">
+        <v>0.217917294694033</v>
+      </c>
+      <c r="T77">
+        <v>1.741281213513959</v>
+      </c>
+      <c r="U77">
+        <v>0.02</v>
+      </c>
+      <c r="V77">
+        <v>0.28</v>
+      </c>
+      <c r="W77">
+        <v>0.0144</v>
+      </c>
+      <c r="X77" t="inlineStr">
+        <is>
+          <t>A1/A+</t>
+        </is>
+      </c>
+      <c r="Y77">
+        <v>8.757561859835333</v>
+      </c>
+      <c r="Z77">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78">
+        <v>0.76</v>
+      </c>
+      <c r="B78">
+        <v>0.06514547290605784</v>
+      </c>
+      <c r="C78">
+        <v>352.4236169214918</v>
+      </c>
+      <c r="D78">
+        <v>1024.615456921492</v>
+      </c>
+      <c r="E78">
+        <v>787.8078399999999</v>
+      </c>
+      <c r="F78">
+        <v>788.79184</v>
+      </c>
+      <c r="G78">
+        <v>116.6</v>
+      </c>
+      <c r="H78">
+        <v>1036.9</v>
+      </c>
+      <c r="I78">
+        <v>0</v>
+      </c>
+      <c r="J78">
+        <v>138.1</v>
+      </c>
+      <c r="K78">
+        <v>1.76</v>
+      </c>
+      <c r="L78">
+        <v>136.34</v>
+      </c>
+      <c r="M78">
+        <v>15.7758368</v>
+      </c>
+      <c r="N78">
+        <v>120.5641632</v>
+      </c>
+      <c r="O78">
+        <v>33.75796569600001</v>
+      </c>
+      <c r="P78">
+        <v>86.80619750400001</v>
+      </c>
+      <c r="Q78">
+        <v>88.56619750400002</v>
+      </c>
+      <c r="R78">
+        <v>3.166666666666667</v>
+      </c>
+      <c r="S78">
+        <v>0.2258394704419076</v>
+      </c>
+      <c r="T78">
+        <v>1.807405816558793</v>
+      </c>
+      <c r="U78">
+        <v>0.02</v>
+      </c>
+      <c r="V78">
+        <v>0.28</v>
+      </c>
+      <c r="W78">
+        <v>0.0144</v>
+      </c>
+      <c r="X78" t="inlineStr">
+        <is>
+          <t>A1/A+</t>
+        </is>
+      </c>
+      <c r="Y78">
+        <v>8.642330782732238</v>
+      </c>
+      <c r="Z78">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79">
+        <v>0.77</v>
+      </c>
+      <c r="B79">
+        <v>0.06501162213860741</v>
+      </c>
+      <c r="C79">
+        <v>343.5543780298475</v>
+      </c>
+      <c r="D79">
+        <v>1026.125058029848</v>
+      </c>
+      <c r="E79">
+        <v>798.18668</v>
+      </c>
+      <c r="F79">
+        <v>799.1706800000001</v>
+      </c>
+      <c r="G79">
+        <v>116.6</v>
+      </c>
+      <c r="H79">
+        <v>1036.9</v>
+      </c>
+      <c r="I79">
+        <v>0</v>
+      </c>
+      <c r="J79">
+        <v>138.1</v>
+      </c>
+      <c r="K79">
+        <v>1.76</v>
+      </c>
+      <c r="L79">
+        <v>136.34</v>
+      </c>
+      <c r="M79">
+        <v>15.9834136</v>
+      </c>
+      <c r="N79">
+        <v>120.3565864</v>
+      </c>
+      <c r="O79">
+        <v>33.699844192</v>
+      </c>
+      <c r="P79">
+        <v>86.656742208</v>
+      </c>
+      <c r="Q79">
+        <v>88.416742208</v>
+      </c>
+      <c r="R79">
+        <v>3.347826086956522</v>
+      </c>
+      <c r="S79">
+        <v>0.2344505310374236</v>
+      </c>
+      <c r="T79">
+        <v>1.879280385085787</v>
+      </c>
+      <c r="U79">
+        <v>0.02</v>
+      </c>
+      <c r="V79">
+        <v>0.28</v>
+      </c>
+      <c r="W79">
+        <v>0.0144</v>
+      </c>
+      <c r="X79" t="inlineStr">
+        <is>
+          <t>A1/A+</t>
+        </is>
+      </c>
+      <c r="Y79">
+        <v>8.53009272061883</v>
+      </c>
+      <c r="Z79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80">
+        <v>0.78</v>
+      </c>
+      <c r="B80">
+        <v>0.06487777137115699</v>
+      </c>
+      <c r="C80">
+        <v>334.6895939959161</v>
+      </c>
+      <c r="D80">
+        <v>1027.639113995916</v>
+      </c>
+      <c r="E80">
+        <v>808.56552</v>
+      </c>
+      <c r="F80">
+        <v>809.54952</v>
+      </c>
+      <c r="G80">
+        <v>116.6</v>
+      </c>
+      <c r="H80">
+        <v>1036.9</v>
+      </c>
+      <c r="I80">
+        <v>0</v>
+      </c>
+      <c r="J80">
+        <v>138.1</v>
+      </c>
+      <c r="K80">
+        <v>1.76</v>
+      </c>
+      <c r="L80">
+        <v>136.34</v>
+      </c>
+      <c r="M80">
+        <v>16.1909904</v>
+      </c>
+      <c r="N80">
+        <v>120.1490096</v>
+      </c>
+      <c r="O80">
+        <v>33.641722688</v>
+      </c>
+      <c r="P80">
+        <v>86.507286912</v>
+      </c>
+      <c r="Q80">
+        <v>88.267286912</v>
+      </c>
+      <c r="R80">
+        <v>3.545454545454546</v>
+      </c>
+      <c r="S80">
+        <v>0.2438444153234409</v>
+      </c>
+      <c r="T80">
+        <v>1.957689005297052</v>
+      </c>
+      <c r="U80">
+        <v>0.02</v>
+      </c>
+      <c r="V80">
+        <v>0.28</v>
+      </c>
+      <c r="W80">
+        <v>0.0144</v>
+      </c>
+      <c r="X80" t="inlineStr">
+        <is>
+          <t>A1/A+</t>
+        </is>
+      </c>
+      <c r="Y80">
+        <v>8.420732557533974</v>
+      </c>
+      <c r="Z80">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81">
+        <v>0.79</v>
+      </c>
+      <c r="B81">
+        <v>0.0647439206037066</v>
+      </c>
+      <c r="C81">
+        <v>325.8292845683744</v>
+      </c>
+      <c r="D81">
+        <v>1029.157644568375</v>
+      </c>
+      <c r="E81">
+        <v>818.94436</v>
+      </c>
+      <c r="F81">
+        <v>819.92836</v>
+      </c>
+      <c r="G81">
+        <v>116.6</v>
+      </c>
+      <c r="H81">
+        <v>1036.9</v>
+      </c>
+      <c r="I81">
+        <v>0</v>
+      </c>
+      <c r="J81">
+        <v>138.1</v>
+      </c>
+      <c r="K81">
+        <v>1.76</v>
+      </c>
+      <c r="L81">
+        <v>136.34</v>
+      </c>
+      <c r="M81">
+        <v>16.3985672</v>
+      </c>
+      <c r="N81">
+        <v>119.9414328</v>
+      </c>
+      <c r="O81">
+        <v>33.583601184</v>
+      </c>
+      <c r="P81">
+        <v>86.357831616</v>
+      </c>
+      <c r="Q81">
+        <v>88.117831616</v>
+      </c>
+      <c r="R81">
+        <v>3.761904761904763</v>
+      </c>
+      <c r="S81">
+        <v>0.2541329552557458</v>
+      </c>
+      <c r="T81">
+        <v>2.043565113147486</v>
+      </c>
+      <c r="U81">
+        <v>0.02</v>
+      </c>
+      <c r="V81">
+        <v>0.28</v>
+      </c>
+      <c r="W81">
+        <v>0.0144</v>
+      </c>
+      <c r="X81" t="inlineStr">
+        <is>
+          <t>A1/A+</t>
+        </is>
+      </c>
+      <c r="Y81">
+        <v>8.314141006172784</v>
+      </c>
+      <c r="Z81">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82">
+        <v>0.8</v>
+      </c>
+      <c r="B82">
+        <v>0.06461006983625617</v>
+      </c>
+      <c r="C82">
+        <v>316.9734696128018</v>
+      </c>
+      <c r="D82">
+        <v>1030.680669612802</v>
+      </c>
+      <c r="E82">
+        <v>829.3232</v>
+      </c>
+      <c r="F82">
+        <v>830.3072000000001</v>
+      </c>
+      <c r="G82">
+        <v>116.6</v>
+      </c>
+      <c r="H82">
+        <v>1036.9</v>
+      </c>
+      <c r="I82">
+        <v>0</v>
+      </c>
+      <c r="J82">
+        <v>138.1</v>
+      </c>
+      <c r="K82">
+        <v>1.76</v>
+      </c>
+      <c r="L82">
+        <v>136.34</v>
+      </c>
+      <c r="M82">
+        <v>16.606144</v>
+      </c>
+      <c r="N82">
+        <v>119.733856</v>
+      </c>
+      <c r="O82">
+        <v>33.52547968</v>
+      </c>
+      <c r="P82">
+        <v>86.20837632</v>
+      </c>
+      <c r="Q82">
+        <v>87.96837632</v>
+      </c>
+      <c r="R82">
+        <v>4.000000000000001</v>
+      </c>
+      <c r="S82">
+        <v>0.2654503491812809</v>
+      </c>
+      <c r="T82">
+        <v>2.138028831782963</v>
+      </c>
+      <c r="U82">
+        <v>0.02</v>
+      </c>
+      <c r="V82">
+        <v>0.28</v>
+      </c>
+      <c r="W82">
+        <v>0.0144</v>
+      </c>
+      <c r="X82" t="inlineStr">
+        <is>
+          <t>A1/A+</t>
+        </is>
+      </c>
+      <c r="Y82">
+        <v>8.210214243595622</v>
+      </c>
+      <c r="Z82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="B83">
+        <v>0.06447621906880577</v>
+      </c>
+      <c r="C83">
+        <v>308.1221691125456</v>
+      </c>
+      <c r="D83">
+        <v>1032.208209112546</v>
+      </c>
+      <c r="E83">
+        <v>839.70204</v>
+      </c>
+      <c r="F83">
+        <v>840.68604</v>
+      </c>
+      <c r="G83">
+        <v>116.6</v>
+      </c>
+      <c r="H83">
+        <v>1036.9</v>
+      </c>
+      <c r="I83">
+        <v>0</v>
+      </c>
+      <c r="J83">
+        <v>138.1</v>
+      </c>
+      <c r="K83">
+        <v>1.76</v>
+      </c>
+      <c r="L83">
+        <v>136.34</v>
+      </c>
+      <c r="M83">
+        <v>16.8137208</v>
+      </c>
+      <c r="N83">
+        <v>119.5262792</v>
+      </c>
+      <c r="O83">
+        <v>33.467358176</v>
+      </c>
+      <c r="P83">
+        <v>86.058921024</v>
+      </c>
+      <c r="Q83">
+        <v>87.81892102400001</v>
+      </c>
+      <c r="R83">
+        <v>4.263157894736843</v>
+      </c>
+      <c r="S83">
+        <v>0.2779590477305568</v>
+      </c>
+      <c r="T83">
+        <v>2.24243609974849</v>
+      </c>
+      <c r="U83">
+        <v>0.02</v>
+      </c>
+      <c r="V83">
+        <v>0.28</v>
+      </c>
+      <c r="W83">
+        <v>0.0144</v>
+      </c>
+      <c r="X83" t="inlineStr">
+        <is>
+          <t>A1/A+</t>
+        </is>
+      </c>
+      <c r="Y83">
+        <v>8.108853573921603</v>
+      </c>
+      <c r="Z83">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84">
+        <v>0.8200000000000001</v>
+      </c>
+      <c r="B84">
+        <v>0.06434236830135537</v>
+      </c>
+      <c r="C84">
+        <v>299.275403169597</v>
+      </c>
+      <c r="D84">
+        <v>1033.740283169597</v>
+      </c>
+      <c r="E84">
+        <v>850.0808800000001</v>
+      </c>
+      <c r="F84">
+        <v>851.0648800000001</v>
+      </c>
+      <c r="G84">
+        <v>116.6</v>
+      </c>
+      <c r="H84">
+        <v>1036.9</v>
+      </c>
+      <c r="I84">
+        <v>0</v>
+      </c>
+      <c r="J84">
+        <v>138.1</v>
+      </c>
+      <c r="K84">
+        <v>1.76</v>
+      </c>
+      <c r="L84">
+        <v>136.34</v>
+      </c>
+      <c r="M84">
+        <v>17.0212976</v>
+      </c>
+      <c r="N84">
+        <v>119.3187024</v>
+      </c>
+      <c r="O84">
+        <v>33.40923667200001</v>
+      </c>
+      <c r="P84">
+        <v>85.909465728</v>
+      </c>
+      <c r="Q84">
+        <v>87.66946572800001</v>
+      </c>
+      <c r="R84">
+        <v>4.555555555555557</v>
+      </c>
+      <c r="S84">
+        <v>0.2918576016741966</v>
+      </c>
+      <c r="T84">
+        <v>2.358444175265743</v>
+      </c>
+      <c r="U84">
+        <v>0.02</v>
+      </c>
+      <c r="V84">
+        <v>0.28</v>
+      </c>
+      <c r="W84">
+        <v>0.0144</v>
+      </c>
+      <c r="X84" t="inlineStr">
+        <is>
+          <t>A1/A+</t>
+        </is>
+      </c>
+      <c r="Y84">
+        <v>8.009965115703046</v>
+      </c>
+      <c r="Z84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85">
+        <v>0.8300000000000001</v>
+      </c>
+      <c r="B85">
+        <v>0.06420851753390497</v>
+      </c>
+      <c r="C85">
+        <v>290.4331920054707</v>
+      </c>
+      <c r="D85">
+        <v>1035.276912005471</v>
+      </c>
+      <c r="E85">
+        <v>860.4597200000001</v>
+      </c>
+      <c r="F85">
+        <v>861.4437200000001</v>
+      </c>
+      <c r="G85">
+        <v>116.6</v>
+      </c>
+      <c r="H85">
+        <v>1036.9</v>
+      </c>
+      <c r="I85">
+        <v>0</v>
+      </c>
+      <c r="J85">
+        <v>138.1</v>
+      </c>
+      <c r="K85">
+        <v>1.76</v>
+      </c>
+      <c r="L85">
+        <v>136.34</v>
+      </c>
+      <c r="M85">
+        <v>17.2288744</v>
+      </c>
+      <c r="N85">
+        <v>119.1111256</v>
+      </c>
+      <c r="O85">
+        <v>33.35111516800001</v>
+      </c>
+      <c r="P85">
+        <v>85.760010432</v>
+      </c>
+      <c r="Q85">
+        <v>87.52001043200001</v>
+      </c>
+      <c r="R85">
+        <v>4.882352941176473</v>
+      </c>
+      <c r="S85">
+        <v>0.3073912796112058</v>
+      </c>
+      <c r="T85">
+        <v>2.488100259667379</v>
+      </c>
+      <c r="U85">
+        <v>0.02</v>
+      </c>
+      <c r="V85">
+        <v>0.28</v>
+      </c>
+      <c r="W85">
+        <v>0.0144</v>
+      </c>
+      <c r="X85" t="inlineStr">
+        <is>
+          <t>A1/A+</t>
+        </is>
+      </c>
+      <c r="Y85">
+        <v>7.913459511899397</v>
+      </c>
+      <c r="Z85">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86">
+        <v>0.84</v>
+      </c>
+      <c r="B86">
+        <v>0.06473994676645456</v>
+      </c>
+      <c r="C86">
+        <v>273.9802361619048</v>
+      </c>
+      <c r="D86">
+        <v>1029.202796161905</v>
+      </c>
+      <c r="E86">
+        <v>870.8385599999999</v>
+      </c>
+      <c r="F86">
+        <v>871.82256</v>
+      </c>
+      <c r="G86">
+        <v>116.6</v>
+      </c>
+      <c r="H86">
+        <v>1036.9</v>
+      </c>
+      <c r="I86">
+        <v>0</v>
+      </c>
+      <c r="J86">
+        <v>138.1</v>
+      </c>
+      <c r="K86">
+        <v>1.76</v>
+      </c>
+      <c r="L86">
+        <v>136.34</v>
+      </c>
+      <c r="M86">
+        <v>18.395456016</v>
+      </c>
+      <c r="N86">
+        <v>117.944543984</v>
+      </c>
+      <c r="O86">
+        <v>33.02447231552001</v>
+      </c>
+      <c r="P86">
+        <v>84.92007166848001</v>
+      </c>
+      <c r="Q86">
+        <v>86.68007166848001</v>
+      </c>
+      <c r="R86">
+        <v>5.249999999999999</v>
+      </c>
+      <c r="S86">
+        <v>0.3248666672903409</v>
+      </c>
+      <c r="T86">
+        <v>2.633963354619217</v>
+      </c>
+      <c r="U86">
+        <v>0.0211</v>
+      </c>
+      <c r="V86">
+        <v>0.28</v>
+      </c>
+      <c r="W86">
+        <v>0.015192</v>
+      </c>
+      <c r="X86" t="inlineStr">
+        <is>
+          <t>A2/A</t>
+        </is>
+      </c>
+      <c r="Y86">
+        <v>7.411612948404986</v>
+      </c>
+      <c r="Z86">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87">
+        <v>0.85</v>
+      </c>
+      <c r="B87">
+        <v>0.06461401599900414</v>
+      </c>
+      <c r="C87">
+        <v>265.0343035926497</v>
+      </c>
+      <c r="D87">
+        <v>1030.63570359265</v>
+      </c>
+      <c r="E87">
+        <v>881.2174</v>
+      </c>
+      <c r="F87">
+        <v>882.2014</v>
+      </c>
+      <c r="G87">
+        <v>116.6</v>
+      </c>
+      <c r="H87">
+        <v>1036.9</v>
+      </c>
+      <c r="I87">
+        <v>0</v>
+      </c>
+      <c r="J87">
+        <v>138.1</v>
+      </c>
+      <c r="K87">
+        <v>1.76</v>
+      </c>
+      <c r="L87">
+        <v>136.34</v>
+      </c>
+      <c r="M87">
+        <v>18.61444954</v>
+      </c>
+      <c r="N87">
+        <v>117.72555046</v>
+      </c>
+      <c r="O87">
+        <v>32.9631541288</v>
+      </c>
+      <c r="P87">
+        <v>84.76239633119999</v>
+      </c>
+      <c r="Q87">
+        <v>86.5223963312</v>
+      </c>
+      <c r="R87">
+        <v>5.666666666666666</v>
+      </c>
+      <c r="S87">
+        <v>0.3446721066600276</v>
+      </c>
+      <c r="T87">
+        <v>2.799274862231302</v>
+      </c>
+      <c r="U87">
+        <v>0.0211</v>
+      </c>
+      <c r="V87">
+        <v>0.28</v>
+      </c>
+      <c r="W87">
+        <v>0.015192</v>
+      </c>
+      <c r="X87" t="inlineStr">
+        <is>
+          <t>A2/A</t>
+        </is>
+      </c>
+      <c r="Y87">
+        <v>7.324417501953161</v>
+      </c>
+      <c r="Z87">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88">
+        <v>0.86</v>
+      </c>
+      <c r="B88">
+        <v>0.06448808523155375</v>
+      </c>
+      <c r="C88">
+        <v>256.0923665164078</v>
+      </c>
+      <c r="D88">
+        <v>1032.072606516408</v>
+      </c>
+      <c r="E88">
+        <v>891.59624</v>
+      </c>
+      <c r="F88">
+        <v>892.58024</v>
+      </c>
+      <c r="G88">
+        <v>116.6</v>
+      </c>
+      <c r="H88">
+        <v>1036.9</v>
+      </c>
+      <c r="I88">
+        <v>0</v>
+      </c>
+      <c r="J88">
+        <v>138.1</v>
+      </c>
+      <c r="K88">
+        <v>1.76</v>
+      </c>
+      <c r="L88">
+        <v>136.34</v>
+      </c>
+      <c r="M88">
+        <v>18.833443064</v>
+      </c>
+      <c r="N88">
+        <v>117.506556936</v>
+      </c>
+      <c r="O88">
+        <v>32.90183594208001</v>
+      </c>
+      <c r="P88">
+        <v>84.60472099392001</v>
+      </c>
+      <c r="Q88">
+        <v>86.36472099392002</v>
+      </c>
+      <c r="R88">
+        <v>6.142857142857142</v>
+      </c>
+      <c r="S88">
+        <v>0.3673068945110981</v>
+      </c>
+      <c r="T88">
+        <v>2.988202299502256</v>
+      </c>
+      <c r="U88">
+        <v>0.0211</v>
+      </c>
+      <c r="V88">
+        <v>0.28</v>
+      </c>
+      <c r="W88">
+        <v>0.015192</v>
+      </c>
+      <c r="X88" t="inlineStr">
+        <is>
+          <t>A2/A</t>
+        </is>
+      </c>
+      <c r="Y88">
+        <v>7.239249856581615</v>
+      </c>
+      <c r="Z88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89">
+        <v>0.87</v>
+      </c>
+      <c r="B89">
+        <v>0.06436215446410333</v>
+      </c>
+      <c r="C89">
+        <v>247.1544416679516</v>
+      </c>
+      <c r="D89">
+        <v>1033.513521667952</v>
+      </c>
+      <c r="E89">
+        <v>901.9750799999999</v>
+      </c>
+      <c r="F89">
+        <v>902.95908</v>
+      </c>
+      <c r="G89">
+        <v>116.6</v>
+      </c>
+      <c r="H89">
+        <v>1036.9</v>
+      </c>
+      <c r="I89">
+        <v>0</v>
+      </c>
+      <c r="J89">
+        <v>138.1</v>
+      </c>
+      <c r="K89">
+        <v>1.76</v>
+      </c>
+      <c r="L89">
+        <v>136.34</v>
+      </c>
+      <c r="M89">
+        <v>19.052436588</v>
+      </c>
+      <c r="N89">
+        <v>117.287563412</v>
+      </c>
+      <c r="O89">
+        <v>32.84051775536</v>
+      </c>
+      <c r="P89">
+        <v>84.44704565664</v>
+      </c>
+      <c r="Q89">
+        <v>86.20704565664001</v>
+      </c>
+      <c r="R89">
+        <v>6.692307692307692</v>
+      </c>
+      <c r="S89">
+        <v>0.3934239574161794</v>
+      </c>
+      <c r="T89">
+        <v>3.206195496353356</v>
+      </c>
+      <c r="U89">
+        <v>0.0211</v>
+      </c>
+      <c r="V89">
+        <v>0.28</v>
+      </c>
+      <c r="W89">
+        <v>0.015192</v>
+      </c>
+      <c r="X89" t="inlineStr">
+        <is>
+          <t>A2/A</t>
+        </is>
+      </c>
+      <c r="Y89">
+        <v>7.15604008811516</v>
+      </c>
+      <c r="Z89">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90">
+        <v>0.88</v>
+      </c>
+      <c r="B90">
+        <v>0.06423622369665292</v>
+      </c>
+      <c r="C90">
+        <v>238.2205458756388</v>
+      </c>
+      <c r="D90">
+        <v>1034.958465875639</v>
+      </c>
+      <c r="E90">
+        <v>912.35392</v>
+      </c>
+      <c r="F90">
+        <v>913.3379200000001</v>
+      </c>
+      <c r="G90">
+        <v>116.6</v>
+      </c>
+      <c r="H90">
+        <v>1036.9</v>
+      </c>
+      <c r="I90">
+        <v>0</v>
+      </c>
+      <c r="J90">
+        <v>138.1</v>
+      </c>
+      <c r="K90">
+        <v>1.76</v>
+      </c>
+      <c r="L90">
+        <v>136.34</v>
+      </c>
+      <c r="M90">
+        <v>19.271430112</v>
+      </c>
+      <c r="N90">
+        <v>117.068569888</v>
+      </c>
+      <c r="O90">
+        <v>32.77919956864</v>
+      </c>
+      <c r="P90">
+        <v>84.28937031935999</v>
+      </c>
+      <c r="Q90">
+        <v>86.04937031935999</v>
+      </c>
+      <c r="R90">
+        <v>7.333333333333334</v>
+      </c>
+      <c r="S90">
+        <v>0.4238938641387743</v>
+      </c>
+      <c r="T90">
+        <v>3.460520892679641</v>
+      </c>
+      <c r="U90">
+        <v>0.0211</v>
+      </c>
+      <c r="V90">
+        <v>0.28</v>
+      </c>
+      <c r="W90">
+        <v>0.015192</v>
+      </c>
+      <c r="X90" t="inlineStr">
+        <is>
+          <t>A2/A</t>
+        </is>
+      </c>
+      <c r="Y90">
+        <v>7.074721450750213</v>
+      </c>
+      <c r="Z90">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91">
+        <v>0.89</v>
+      </c>
+      <c r="B91">
+        <v>0.06411029292920251</v>
+      </c>
+      <c r="C91">
+        <v>229.2906960620699</v>
+      </c>
+      <c r="D91">
+        <v>1036.40745606207</v>
+      </c>
+      <c r="E91">
+        <v>922.73276</v>
+      </c>
+      <c r="F91">
+        <v>923.71676</v>
+      </c>
+      <c r="G91">
+        <v>116.6</v>
+      </c>
+      <c r="H91">
+        <v>1036.9</v>
+      </c>
+      <c r="I91">
+        <v>0</v>
+      </c>
+      <c r="J91">
+        <v>138.1</v>
+      </c>
+      <c r="K91">
+        <v>1.76</v>
+      </c>
+      <c r="L91">
+        <v>136.34</v>
+      </c>
+      <c r="M91">
+        <v>19.490423636</v>
+      </c>
+      <c r="N91">
+        <v>116.849576364</v>
+      </c>
+      <c r="O91">
+        <v>32.71788138192</v>
+      </c>
+      <c r="P91">
+        <v>84.13169498208001</v>
+      </c>
+      <c r="Q91">
+        <v>85.89169498208001</v>
+      </c>
+      <c r="R91">
+        <v>8.090909090909092</v>
+      </c>
+      <c r="S91">
+        <v>0.459903753901841</v>
+      </c>
+      <c r="T91">
+        <v>3.761087270156159</v>
+      </c>
+      <c r="U91">
+        <v>0.0211</v>
+      </c>
+      <c r="V91">
+        <v>0.28</v>
+      </c>
+      <c r="W91">
+        <v>0.015192</v>
+      </c>
+      <c r="X91" t="inlineStr">
+        <is>
+          <t>A2/A</t>
+        </is>
+      </c>
+      <c r="Y91">
+        <v>6.995230198494593</v>
+      </c>
+      <c r="Z91">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92">
+        <v>0.9</v>
+      </c>
+      <c r="B92">
+        <v>0.0639843621617521</v>
+      </c>
+      <c r="C92">
+        <v>220.364909244748</v>
+      </c>
+      <c r="D92">
+        <v>1037.860509244748</v>
+      </c>
+      <c r="E92">
+        <v>933.1116</v>
+      </c>
+      <c r="F92">
+        <v>934.0956</v>
+      </c>
+      <c r="G92">
+        <v>116.6</v>
+      </c>
+      <c r="H92">
+        <v>1036.9</v>
+      </c>
+      <c r="I92">
+        <v>0</v>
+      </c>
+      <c r="J92">
+        <v>138.1</v>
+      </c>
+      <c r="K92">
+        <v>1.76</v>
+      </c>
+      <c r="L92">
+        <v>136.34</v>
+      </c>
+      <c r="M92">
+        <v>19.70941716</v>
+      </c>
+      <c r="N92">
+        <v>116.63058284</v>
+      </c>
+      <c r="O92">
+        <v>32.6565631952</v>
+      </c>
+      <c r="P92">
+        <v>83.97401964479999</v>
+      </c>
+      <c r="Q92">
+        <v>85.7340196448</v>
+      </c>
+      <c r="R92">
+        <v>9.000000000000002</v>
+      </c>
+      <c r="S92">
+        <v>0.5031156216175211</v>
+      </c>
+      <c r="T92">
+        <v>4.12176692312798</v>
+      </c>
+      <c r="U92">
+        <v>0.0211</v>
+      </c>
+      <c r="V92">
+        <v>0.28</v>
+      </c>
+      <c r="W92">
+        <v>0.015192</v>
+      </c>
+      <c r="X92" t="inlineStr">
+        <is>
+          <t>A2/A</t>
+        </is>
+      </c>
+      <c r="Y92">
+        <v>6.91750541851132</v>
+      </c>
+      <c r="Z92">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93">
+        <v>0.91</v>
+      </c>
+      <c r="B93">
+        <v>0.06385843139430168</v>
+      </c>
+      <c r="C93">
+        <v>211.4432025367445</v>
+      </c>
+      <c r="D93">
+        <v>1039.317642536745</v>
+      </c>
+      <c r="E93">
+        <v>943.49044</v>
+      </c>
+      <c r="F93">
+        <v>944.4744400000001</v>
+      </c>
+      <c r="G93">
+        <v>116.6</v>
+      </c>
+      <c r="H93">
+        <v>1036.9</v>
+      </c>
+      <c r="I93">
+        <v>0</v>
+      </c>
+      <c r="J93">
+        <v>138.1</v>
+      </c>
+      <c r="K93">
+        <v>1.76</v>
+      </c>
+      <c r="L93">
+        <v>136.34</v>
+      </c>
+      <c r="M93">
+        <v>19.928410684</v>
+      </c>
+      <c r="N93">
+        <v>116.411589316</v>
+      </c>
+      <c r="O93">
+        <v>32.59524500848001</v>
+      </c>
+      <c r="P93">
+        <v>83.81634430752</v>
+      </c>
+      <c r="Q93">
+        <v>85.57634430752</v>
+      </c>
+      <c r="R93">
+        <v>10.11111111111111</v>
+      </c>
+      <c r="S93">
+        <v>0.5559301266033522</v>
+      </c>
+      <c r="T93">
+        <v>4.562597610093539</v>
+      </c>
+      <c r="U93">
+        <v>0.0211</v>
+      </c>
+      <c r="V93">
+        <v>0.28</v>
+      </c>
+      <c r="W93">
+        <v>0.015192</v>
+      </c>
+      <c r="X93" t="inlineStr">
+        <is>
+          <t>A2/A</t>
+        </is>
+      </c>
+      <c r="Y93">
+        <v>6.841488875450755</v>
+      </c>
+      <c r="Z93">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94">
+        <v>0.92</v>
+      </c>
+      <c r="B94">
+        <v>0.06373250062685129</v>
+      </c>
+      <c r="C94">
+        <v>202.5255931473714</v>
+      </c>
+      <c r="D94">
+        <v>1040.778873147372</v>
+      </c>
+      <c r="E94">
+        <v>953.86928</v>
+      </c>
+      <c r="F94">
+        <v>954.85328</v>
+      </c>
+      <c r="G94">
+        <v>116.6</v>
+      </c>
+      <c r="H94">
+        <v>1036.9</v>
+      </c>
+      <c r="I94">
+        <v>0</v>
+      </c>
+      <c r="J94">
+        <v>138.1</v>
+      </c>
+      <c r="K94">
+        <v>1.76</v>
+      </c>
+      <c r="L94">
+        <v>136.34</v>
+      </c>
+      <c r="M94">
+        <v>20.147404208</v>
+      </c>
+      <c r="N94">
+        <v>116.192595792</v>
+      </c>
+      <c r="O94">
+        <v>32.53392682176001</v>
+      </c>
+      <c r="P94">
+        <v>83.65866897024</v>
+      </c>
+      <c r="Q94">
+        <v>85.41866897024001</v>
+      </c>
+      <c r="R94">
+        <v>11.50000000000001</v>
+      </c>
+      <c r="S94">
+        <v>0.6219482578356413</v>
+      </c>
+      <c r="T94">
+        <v>5.113635968800491</v>
+      </c>
+      <c r="U94">
+        <v>0.0211</v>
+      </c>
+      <c r="V94">
+        <v>0.28</v>
+      </c>
+      <c r="W94">
+        <v>0.015192</v>
+      </c>
+      <c r="X94" t="inlineStr">
+        <is>
+          <t>A2/A</t>
+        </is>
+      </c>
+      <c r="Y94">
+        <v>6.767124865934988</v>
+      </c>
+      <c r="Z94">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95">
+        <v>0.93</v>
+      </c>
+      <c r="B95">
+        <v>0.06360656985940087</v>
+      </c>
+      <c r="C95">
+        <v>193.6120983828599</v>
+      </c>
+      <c r="D95">
+        <v>1042.24421838286</v>
+      </c>
+      <c r="E95">
+        <v>964.24812</v>
+      </c>
+      <c r="F95">
+        <v>965.23212</v>
+      </c>
+      <c r="G95">
+        <v>116.6</v>
+      </c>
+      <c r="H95">
+        <v>1036.9</v>
+      </c>
+      <c r="I95">
+        <v>0</v>
+      </c>
+      <c r="J95">
+        <v>138.1</v>
+      </c>
+      <c r="K95">
+        <v>1.76</v>
+      </c>
+      <c r="L95">
+        <v>136.34</v>
+      </c>
+      <c r="M95">
+        <v>20.366397732</v>
+      </c>
+      <c r="N95">
+        <v>115.973602268</v>
+      </c>
+      <c r="O95">
+        <v>32.47260863504</v>
+      </c>
+      <c r="P95">
+        <v>83.50099363296</v>
+      </c>
+      <c r="Q95">
+        <v>85.26099363296001</v>
+      </c>
+      <c r="R95">
+        <v>13.2857142857143</v>
+      </c>
+      <c r="S95">
+        <v>0.7068287122771558</v>
+      </c>
+      <c r="T95">
+        <v>5.82211385856657</v>
+      </c>
+      <c r="U95">
+        <v>0.0211</v>
+      </c>
+      <c r="V95">
+        <v>0.28</v>
+      </c>
+      <c r="W95">
+        <v>0.015192</v>
+      </c>
+      <c r="X95" t="inlineStr">
+        <is>
+          <t>A2/A</t>
+        </is>
+      </c>
+      <c r="Y95">
+        <v>6.69436008243031</v>
+      </c>
+      <c r="Z95">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96">
+        <v>0.9400000000000001</v>
+      </c>
+      <c r="B96">
+        <v>0.06348063909195045</v>
+      </c>
+      <c r="C96">
+        <v>184.7027356470413</v>
+      </c>
+      <c r="D96">
+        <v>1043.713695647042</v>
+      </c>
+      <c r="E96">
+        <v>974.6269600000001</v>
+      </c>
+      <c r="F96">
+        <v>975.6109600000001</v>
+      </c>
+      <c r="G96">
+        <v>116.6</v>
+      </c>
+      <c r="H96">
+        <v>1036.9</v>
+      </c>
+      <c r="I96">
+        <v>0</v>
+      </c>
+      <c r="J96">
+        <v>138.1</v>
+      </c>
+      <c r="K96">
+        <v>1.76</v>
+      </c>
+      <c r="L96">
+        <v>136.34</v>
+      </c>
+      <c r="M96">
+        <v>20.585391256</v>
+      </c>
+      <c r="N96">
+        <v>115.754608744</v>
+      </c>
+      <c r="O96">
+        <v>32.41129044832</v>
+      </c>
+      <c r="P96">
+        <v>83.34331829567999</v>
+      </c>
+      <c r="Q96">
+        <v>85.10331829568</v>
+      </c>
+      <c r="R96">
+        <v>15.66666666666668</v>
+      </c>
+      <c r="S96">
+        <v>0.8200026515325084</v>
+      </c>
+      <c r="T96">
+        <v>6.766751044921341</v>
+      </c>
+      <c r="U96">
+        <v>0.0211</v>
+      </c>
+      <c r="V96">
+        <v>0.28</v>
+      </c>
+      <c r="W96">
+        <v>0.015192</v>
+      </c>
+      <c r="X96" t="inlineStr">
+        <is>
+          <t>A2/A</t>
+        </is>
+      </c>
+      <c r="Y96">
+        <v>6.62314348580871</v>
+      </c>
+      <c r="Z96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97">
+        <v>0.9500000000000001</v>
+      </c>
+      <c r="B97">
+        <v>0.06335470832450006</v>
+      </c>
+      <c r="C97">
+        <v>175.7975224420377</v>
+      </c>
+      <c r="D97">
+        <v>1045.187322442038</v>
+      </c>
+      <c r="E97">
+        <v>985.0058</v>
+      </c>
+      <c r="F97">
+        <v>985.9898000000001</v>
+      </c>
+      <c r="G97">
+        <v>116.6</v>
+      </c>
+      <c r="H97">
+        <v>1036.9</v>
+      </c>
+      <c r="I97">
+        <v>0</v>
+      </c>
+      <c r="J97">
+        <v>138.1</v>
+      </c>
+      <c r="K97">
+        <v>1.76</v>
+      </c>
+      <c r="L97">
+        <v>136.34</v>
+      </c>
+      <c r="M97">
+        <v>20.80438478</v>
+      </c>
+      <c r="N97">
+        <v>115.53561522</v>
+      </c>
+      <c r="O97">
+        <v>32.3499722616</v>
+      </c>
+      <c r="P97">
+        <v>83.1856429584</v>
+      </c>
+      <c r="Q97">
+        <v>84.9456429584</v>
+      </c>
+      <c r="R97">
+        <v>19.00000000000003</v>
+      </c>
+      <c r="S97">
+        <v>0.9784461664900024</v>
+      </c>
+      <c r="T97">
+        <v>8.089243105818024</v>
+      </c>
+      <c r="U97">
+        <v>0.0211</v>
+      </c>
+      <c r="V97">
+        <v>0.28</v>
+      </c>
+      <c r="W97">
+        <v>0.015192</v>
+      </c>
+      <c r="X97" t="inlineStr">
+        <is>
+          <t>A2/A</t>
+        </is>
+      </c>
+      <c r="Y97">
+        <v>6.553426185958092</v>
+      </c>
+      <c r="Z97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98">
+        <v>0.96</v>
+      </c>
+      <c r="B98">
+        <v>0.06322877755704966</v>
+      </c>
+      <c r="C98">
+        <v>166.8964763689568</v>
+      </c>
+      <c r="D98">
+        <v>1046.665116368957</v>
+      </c>
+      <c r="E98">
+        <v>995.38464</v>
+      </c>
+      <c r="F98">
+        <v>996.36864</v>
+      </c>
+      <c r="G98">
+        <v>116.6</v>
+      </c>
+      <c r="H98">
+        <v>1036.9</v>
+      </c>
+      <c r="I98">
+        <v>0</v>
+      </c>
+      <c r="J98">
+        <v>138.1</v>
+      </c>
+      <c r="K98">
+        <v>1.76</v>
+      </c>
+      <c r="L98">
+        <v>136.34</v>
+      </c>
+      <c r="M98">
+        <v>21.023378304</v>
+      </c>
+      <c r="N98">
+        <v>115.316621696</v>
+      </c>
+      <c r="O98">
+        <v>32.28865407488</v>
+      </c>
+      <c r="P98">
+        <v>83.02796762112</v>
+      </c>
+      <c r="Q98">
+        <v>84.78796762112</v>
+      </c>
+      <c r="R98">
+        <v>23.99999999999998</v>
+      </c>
+      <c r="S98">
+        <v>1.21611143892624</v>
+      </c>
+      <c r="T98">
+        <v>10.07298119716302</v>
+      </c>
+      <c r="U98">
+        <v>0.0211</v>
+      </c>
+      <c r="V98">
+        <v>0.28</v>
+      </c>
+      <c r="W98">
+        <v>0.015192</v>
+      </c>
+      <c r="X98" t="inlineStr">
+        <is>
+          <t>A2/A</t>
+        </is>
+      </c>
+      <c r="Y98">
+        <v>6.485161329854362</v>
+      </c>
+      <c r="Z98">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99">
+        <v>0.97</v>
+      </c>
+      <c r="B99">
+        <v>0.06415044678959925</v>
+      </c>
+      <c r="C99">
+        <v>145.7975155303434</v>
+      </c>
+      <c r="D99">
+        <v>1035.944995530343</v>
+      </c>
+      <c r="E99">
+        <v>1005.76348</v>
+      </c>
+      <c r="F99">
+        <v>1006.74748</v>
+      </c>
+      <c r="G99">
+        <v>116.6</v>
+      </c>
+      <c r="H99">
+        <v>1036.9</v>
+      </c>
+      <c r="I99">
+        <v>0</v>
+      </c>
+      <c r="J99">
+        <v>138.1</v>
+      </c>
+      <c r="K99">
+        <v>1.76</v>
+      </c>
+      <c r="L99">
+        <v>136.34</v>
+      </c>
+      <c r="M99">
+        <v>22.752493048</v>
+      </c>
+      <c r="N99">
+        <v>113.587506952</v>
+      </c>
+      <c r="O99">
+        <v>31.80450194656001</v>
+      </c>
+      <c r="P99">
+        <v>81.78300500544</v>
+      </c>
+      <c r="Q99">
+        <v>83.54300500544001</v>
+      </c>
+      <c r="R99">
+        <v>32.33333333333331</v>
+      </c>
+      <c r="S99">
+        <v>1.612220226319973</v>
+      </c>
+      <c r="T99">
+        <v>13.37921134940471</v>
+      </c>
+      <c r="U99">
+        <v>0.0226</v>
+      </c>
+      <c r="V99">
+        <v>0.28</v>
+      </c>
+      <c r="W99">
+        <v>0.016272</v>
+      </c>
+      <c r="X99" t="inlineStr">
+        <is>
+          <t>A3/A-</t>
+        </is>
+      </c>
+      <c r="Y99">
+        <v>5.992310368466836</v>
+      </c>
+      <c r="Z99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100">
+        <v>0.98</v>
+      </c>
+      <c r="B100">
+        <v>0.06403531602214882</v>
+      </c>
+      <c r="C100">
+        <v>136.7457672263012</v>
+      </c>
+      <c r="D100">
+        <v>1037.272087226301</v>
+      </c>
+      <c r="E100">
+        <v>1016.14232</v>
+      </c>
+      <c r="F100">
+        <v>1017.12632</v>
+      </c>
+      <c r="G100">
+        <v>116.6</v>
+      </c>
+      <c r="H100">
+        <v>1036.9</v>
+      </c>
+      <c r="I100">
+        <v>0</v>
+      </c>
+      <c r="J100">
+        <v>138.1</v>
+      </c>
+      <c r="K100">
+        <v>1.76</v>
+      </c>
+      <c r="L100">
+        <v>136.34</v>
+      </c>
+      <c r="M100">
+        <v>22.987054832</v>
+      </c>
+      <c r="N100">
+        <v>113.352945168</v>
+      </c>
+      <c r="O100">
+        <v>31.73882464704</v>
+      </c>
+      <c r="P100">
+        <v>81.61412052096</v>
+      </c>
+      <c r="Q100">
+        <v>83.37412052096001</v>
+      </c>
+      <c r="R100">
+        <v>48.99999999999996</v>
+      </c>
+      <c r="S100">
+        <v>2.404437801107439</v>
+      </c>
+      <c r="T100">
+        <v>19.9916716538881</v>
+      </c>
+      <c r="U100">
+        <v>0.0226</v>
+      </c>
+      <c r="V100">
+        <v>0.28</v>
+      </c>
+      <c r="W100">
+        <v>0.016272</v>
+      </c>
+      <c r="X100" t="inlineStr">
+        <is>
+          <t>A3/A-</t>
+        </is>
+      </c>
+      <c r="Y100">
+        <v>5.931164344298807</v>
+      </c>
+      <c r="Z100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101">
+        <v>0.99</v>
+      </c>
+      <c r="B101">
+        <v>0.06392018525469841</v>
+      </c>
+      <c r="C101">
+        <v>127.6974234107424</v>
+      </c>
+      <c r="D101">
+        <v>1038.602583410742</v>
+      </c>
+      <c r="E101">
+        <v>1026.52116</v>
+      </c>
+      <c r="F101">
+        <v>1027.50516</v>
+      </c>
+      <c r="G101">
+        <v>116.6</v>
+      </c>
+      <c r="H101">
+        <v>1036.9</v>
+      </c>
+      <c r="I101">
+        <v>0</v>
+      </c>
+      <c r="J101">
+        <v>138.1</v>
+      </c>
+      <c r="K101">
+        <v>1.76</v>
+      </c>
+      <c r="L101">
+        <v>136.34</v>
+      </c>
+      <c r="M101">
+        <v>23.221616616</v>
+      </c>
+      <c r="N101">
+        <v>113.118383384</v>
+      </c>
+      <c r="O101">
+        <v>31.67314734752</v>
+      </c>
+      <c r="P101">
+        <v>81.44523603648</v>
+      </c>
+      <c r="Q101">
+        <v>83.20523603648</v>
+      </c>
+      <c r="R101">
+        <v>98.99999999999991</v>
+      </c>
+      <c r="S101">
+        <v>4.781090525469836</v>
+      </c>
+      <c r="T101">
+        <v>39.82905256733824</v>
+      </c>
+      <c r="U101">
+        <v>0.0226</v>
+      </c>
+      <c r="V101">
+        <v>0.28</v>
+      </c>
+      <c r="W101">
+        <v>0.016272</v>
+      </c>
+      <c r="X101" t="inlineStr">
+        <is>
+          <t>A3/A-</t>
+        </is>
+      </c>
+      <c r="Y101">
+        <v>5.871253593346294</v>
+      </c>
+      <c r="Z101">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
